--- a/data/trans_orig/P05B-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05B-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4737</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1736</v>
+        <v>1746</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10926</v>
+        <v>10369</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01004852511239395</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003681809069752632</v>
+        <v>0.003702849048576891</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0231760902569068</v>
+        <v>0.02199528053762795</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6840</v>
+        <v>8133</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007274945074842887</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02230359130037683</v>
+        <v>0.02652056379558275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>6968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2826</v>
+        <v>2872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13262</v>
+        <v>14057</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008955351169365997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003632314908976592</v>
+        <v>0.003691094773281475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01704396127536981</v>
+        <v>0.01806566674810356</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>10729</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5402</v>
+        <v>5173</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17902</v>
+        <v>18496</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02275977954123799</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01145886676962148</v>
+        <v>0.01097389238097037</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03797533289876372</v>
+        <v>0.03923363729845416</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -836,19 +836,19 @@
         <v>11980</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6269</v>
+        <v>6036</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20587</v>
+        <v>20135</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03906441089003064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02044124299691117</v>
+        <v>0.01968254220448287</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06712897969015416</v>
+        <v>0.06565582694736129</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -857,19 +857,19 @@
         <v>22710</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15045</v>
+        <v>14684</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33895</v>
+        <v>32760</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0291860581774638</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0193360487787801</v>
+        <v>0.01887158516593787</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04356116048405697</v>
+        <v>0.04210254677345068</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>93506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77706</v>
+        <v>75927</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112210</v>
+        <v>110369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1983486441480262</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1648328401054732</v>
+        <v>0.1610598891712851</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2380249967122001</v>
+        <v>0.2341180156887609</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -907,19 +907,19 @@
         <v>55827</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43178</v>
+        <v>43037</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70029</v>
+        <v>70255</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1820382611472524</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1407901415055079</v>
+        <v>0.140330407906721</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2283443809891348</v>
+        <v>0.2290831361092834</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>145</v>
@@ -928,19 +928,19 @@
         <v>149334</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>127469</v>
+        <v>127527</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>171910</v>
+        <v>171516</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1919200985658352</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1638196722249727</v>
+        <v>0.1638951597656072</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2209344915383732</v>
+        <v>0.2204286422668202</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>298875</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>275262</v>
+        <v>277757</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>318970</v>
+        <v>321573</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6339850112520707</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5838968008678908</v>
+        <v>0.5891875094261524</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6766111311235322</v>
+        <v>0.6821318619387464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>195</v>
@@ -978,19 +978,19 @@
         <v>200144</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>183029</v>
+        <v>182513</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>216784</v>
+        <v>216363</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6526142321247067</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5968075267120013</v>
+        <v>0.5951251854430462</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7068724782175343</v>
+        <v>0.7055024446810805</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>481</v>
@@ -999,19 +999,19 @@
         <v>499019</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>472448</v>
+        <v>474545</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>523323</v>
+        <v>526148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.641327499502332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6071789114603199</v>
+        <v>0.6098728849245354</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6725618731775694</v>
+        <v>0.6761926547409873</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>63575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>50205</v>
+        <v>49568</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79962</v>
+        <v>79849</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1348580399462711</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1064961135658795</v>
+        <v>0.1051456138153427</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1696186146635322</v>
+        <v>0.1693779034491878</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -1049,19 +1049,19 @@
         <v>36497</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26419</v>
+        <v>27533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50062</v>
+        <v>51725</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1190081507631674</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08614556229234724</v>
+        <v>0.08977730034504904</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1632377368944639</v>
+        <v>0.1686619243304612</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>95</v>
@@ -1070,19 +1070,19 @@
         <v>100073</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>82199</v>
+        <v>82914</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>119505</v>
+        <v>121296</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1286109925850029</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1056395572336079</v>
+        <v>0.1065584067373361</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1535853492488985</v>
+        <v>0.1558867283930606</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>5774</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1780</v>
+        <v>1792</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13904</v>
+        <v>15646</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01573629102543429</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004851500499956745</v>
+        <v>0.00488469648641572</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03789109876011106</v>
+        <v>0.04263862943085553</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6223</v>
+        <v>6103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0047956985085262</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01673374512989411</v>
+        <v>0.01641098288219004</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1216,19 +1216,19 @@
         <v>7558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3240</v>
+        <v>2688</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15921</v>
+        <v>17135</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01022948614967048</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004385458438629026</v>
+        <v>0.00363853925929796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0215496835874668</v>
+        <v>0.02319237129194639</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>6199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1982</v>
+        <v>2609</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12884</v>
+        <v>13146</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0168933086020004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005401951173603925</v>
+        <v>0.007110429074252241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03511180840471768</v>
+        <v>0.03582796385014402</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1266,19 +1266,19 @@
         <v>11366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5936</v>
+        <v>6420</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19554</v>
+        <v>20397</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03056457299768548</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01596370700213458</v>
+        <v>0.01726308055396428</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05258227102218974</v>
+        <v>0.05485169334947163</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1287,19 +1287,19 @@
         <v>17565</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10891</v>
+        <v>10056</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28005</v>
+        <v>28154</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02377456163428964</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01474089364022922</v>
+        <v>0.01361092637352394</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03790664445312042</v>
+        <v>0.03810789855162746</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>80675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>64669</v>
+        <v>64809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>98106</v>
+        <v>97560</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2198636099350861</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1762415466977492</v>
+        <v>0.1766221730660858</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2673677367737134</v>
+        <v>0.2658796550216753</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -1337,19 +1337,19 @@
         <v>74344</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>59126</v>
+        <v>58963</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>91240</v>
+        <v>89664</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1999216408062615</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1589982713466755</v>
+        <v>0.1585603092545804</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2453578418624009</v>
+        <v>0.2411196239745816</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>150</v>
@@ -1358,19 +1358,19 @@
         <v>155019</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>134904</v>
+        <v>134326</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>179100</v>
+        <v>178752</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2098260792747286</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1825992940216672</v>
+        <v>0.1818164409557615</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2424209404671928</v>
+        <v>0.2419494879209566</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>235288</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>217122</v>
+        <v>216792</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>252843</v>
+        <v>254295</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6412281885653218</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5917183036376227</v>
+        <v>0.5908192512785305</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6890684795294856</v>
+        <v>0.6930273509985662</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>240</v>
@@ -1408,19 +1408,19 @@
         <v>245112</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>225040</v>
+        <v>225926</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>261932</v>
+        <v>262555</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.659141551774431</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.605166764805867</v>
+        <v>0.6075496652664758</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7043727321223777</v>
+        <v>0.706048915556782</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>463</v>
@@ -1429,19 +1429,19 @@
         <v>480400</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>454855</v>
+        <v>452668</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>504074</v>
+        <v>506685</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6502446468338113</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6156684114631787</v>
+        <v>0.6127085238812116</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6822885445359204</v>
+        <v>0.6858225904840446</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>38997</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27853</v>
+        <v>28815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50409</v>
+        <v>53477</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1062786018721574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07590730626341889</v>
+        <v>0.07852893413026475</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.137380115411661</v>
+        <v>0.145739953385963</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>39</v>
@@ -1479,19 +1479,19 @@
         <v>39260</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28210</v>
+        <v>29307</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52201</v>
+        <v>52976</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1055765359130958</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07586094847425931</v>
+        <v>0.07881026409931502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1403767768194972</v>
+        <v>0.1424595034675906</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>77</v>
@@ -1500,19 +1500,19 @@
         <v>78257</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>62984</v>
+        <v>61648</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>96768</v>
+        <v>96062</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1059252261074999</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08525195379486149</v>
+        <v>0.08344356583702001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1309798421544249</v>
+        <v>0.1300242987608472</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>4618</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1788</v>
+        <v>1737</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10366</v>
+        <v>9962</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00851334465500387</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003295907061167961</v>
+        <v>0.00320160030552437</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01911153042072817</v>
+        <v>0.01836642204257223</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7921</v>
+        <v>7871</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01357251484387304</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04721268198006169</v>
+        <v>0.04691140542121588</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1646,19 +1646,19 @@
         <v>6895</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2853</v>
+        <v>2840</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13023</v>
+        <v>13533</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009708602167489302</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004016936088946049</v>
+        <v>0.003999450359573477</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01833818701784242</v>
+        <v>0.01905527114019315</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>6848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2954</v>
+        <v>2859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13101</v>
+        <v>13273</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01262534473042757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0054457400573782</v>
+        <v>0.005271979599164974</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0241551314742008</v>
+        <v>0.02447107549525897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1696,19 +1696,19 @@
         <v>8235</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3884</v>
+        <v>3915</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15077</v>
+        <v>15857</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0490808301457202</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02314946878395282</v>
+        <v>0.02333299355290385</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08985867833561732</v>
+        <v>0.09450883747118785</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1717,19 +1717,19 @@
         <v>15083</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9025</v>
+        <v>8841</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24650</v>
+        <v>23338</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02123815892469987</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01270825835261553</v>
+        <v>0.01244958078102522</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03470947597328074</v>
+        <v>0.03286273588800034</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>124509</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>105869</v>
+        <v>106037</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>144555</v>
+        <v>146646</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2295573646127806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.195190888577905</v>
+        <v>0.195500696421241</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2665159767386084</v>
+        <v>0.2703707893137196</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>33</v>
@@ -1767,19 +1767,19 @@
         <v>34600</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24972</v>
+        <v>25013</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46344</v>
+        <v>46672</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2062190513874923</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1488333487181719</v>
+        <v>0.1490779355305768</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.276217435469506</v>
+        <v>0.2781689982474834</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>151</v>
@@ -1788,19 +1788,19 @@
         <v>159109</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>139292</v>
+        <v>136327</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>182469</v>
+        <v>182250</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2240435563853687</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1961383700483435</v>
+        <v>0.1919638866758263</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2569363614263432</v>
+        <v>0.2566277121784905</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>345095</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>321250</v>
+        <v>321584</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>366372</v>
+        <v>366290</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6362507317618128</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.592287370567223</v>
+        <v>0.5929032928572951</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.67547875285541</v>
+        <v>0.6753273341424898</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>105</v>
@@ -1838,19 +1838,19 @@
         <v>106803</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>94596</v>
+        <v>93397</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>119037</v>
+        <v>119135</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6365555832376188</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5638016312371035</v>
+        <v>0.5566588486858024</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7094761440413293</v>
+        <v>0.7100600150452935</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>445</v>
@@ -1859,19 +1859,19 @@
         <v>451898</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>427967</v>
+        <v>425241</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>476263</v>
+        <v>478165</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6363227546436386</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6026257279963843</v>
+        <v>0.5987862727315413</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6706321149278139</v>
+        <v>0.6733095387606129</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>61319</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47159</v>
+        <v>47469</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>77691</v>
+        <v>78471</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1130532142399751</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0869472422006734</v>
+        <v>0.08751812161557757</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1432391094424796</v>
+        <v>0.1446757816446478</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1909,19 +1909,19 @@
         <v>15867</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9453</v>
+        <v>9604</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23670</v>
+        <v>24698</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09457202038529558</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05634096949730074</v>
+        <v>0.0572421388263879</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1410748475560962</v>
+        <v>0.147205263423744</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -1930,19 +1930,19 @@
         <v>77186</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>61131</v>
+        <v>61051</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94993</v>
+        <v>94415</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1086869278788035</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0860787703872916</v>
+        <v>0.08596697838980763</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1337614381887326</v>
+        <v>0.132946952107105</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>5679</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2119</v>
+        <v>1936</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13896</v>
+        <v>14349</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004592573558938064</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001713768565011617</v>
+        <v>0.00156561982224652</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01123748820122794</v>
+        <v>0.01160397599553626</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>6204</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1976</v>
+        <v>2500</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12363</v>
+        <v>13438</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008685043847602974</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002766842698573098</v>
+        <v>0.003500681379881973</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01730826547399363</v>
+        <v>0.01881306350121041</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2076,19 +2076,19 @@
         <v>11883</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5940</v>
+        <v>5899</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21112</v>
+        <v>21153</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006090990538430806</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003045046962275845</v>
+        <v>0.003023609513386439</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01082176425095583</v>
+        <v>0.01084305059248391</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>34973</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24661</v>
+        <v>24701</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>50312</v>
+        <v>49010</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02828209482163912</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01994340006770349</v>
+        <v>0.01997570636862924</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0406867460189042</v>
+        <v>0.03963427659895253</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -2126,19 +2126,19 @@
         <v>27027</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17830</v>
+        <v>18189</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>37872</v>
+        <v>38210</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03783714970527614</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02496238876618762</v>
+        <v>0.02546403255364542</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05302046553363691</v>
+        <v>0.05349424522663166</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>61</v>
@@ -2147,19 +2147,19 @@
         <v>61999</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48116</v>
+        <v>46693</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>80122</v>
+        <v>80208</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03178058240193565</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02466399621478509</v>
+        <v>0.02393487601453815</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04107000322545015</v>
+        <v>0.04111437140537347</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>246173</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>219138</v>
+        <v>219102</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>274347</v>
+        <v>275874</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.199077388495277</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1772143968586896</v>
+        <v>0.1771853270009308</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2218614383647487</v>
+        <v>0.2230966771260416</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>150</v>
@@ -2197,19 +2197,19 @@
         <v>154351</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>132059</v>
+        <v>133757</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>177472</v>
+        <v>176601</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2160914203105156</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1848824165404657</v>
+        <v>0.1872600799690994</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2484604406571615</v>
+        <v>0.2472422926582396</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>394</v>
@@ -2218,19 +2218,19 @@
         <v>400524</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>363379</v>
+        <v>365246</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>440138</v>
+        <v>438959</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2053069057216318</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1862669159557735</v>
+        <v>0.1872235706125748</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2256129283346533</v>
+        <v>0.2250086025774916</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>829831</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>796940</v>
+        <v>792703</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>864481</v>
+        <v>862142</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6710756971036751</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6444771592974785</v>
+        <v>0.6410507595351794</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6990969533494781</v>
+        <v>0.6972055522103577</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>440</v>
@@ -2268,19 +2268,19 @@
         <v>449436</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>424807</v>
+        <v>422698</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>477229</v>
+        <v>472934</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6292114247026207</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.594730065548515</v>
+        <v>0.5917778626243461</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6681209008613965</v>
+        <v>0.6621081973479697</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1263</v>
@@ -2289,19 +2289,19 @@
         <v>1279267</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1232301</v>
+        <v>1238525</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1319614</v>
+        <v>1323907</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6557475133478649</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6316726888430714</v>
+        <v>0.6348634157748057</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6764290605480686</v>
+        <v>0.6786297731370058</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>119913</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>98103</v>
+        <v>99995</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>141375</v>
+        <v>142928</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09697224602047075</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07933472963983801</v>
+        <v>0.0808646503363596</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1143286892981823</v>
+        <v>0.115584146315913</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>71</v>
@@ -2339,19 +2339,19 @@
         <v>77268</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61317</v>
+        <v>60937</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>97431</v>
+        <v>94891</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1081749614339846</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08584439529206379</v>
+        <v>0.08531158486959951</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1364040571943509</v>
+        <v>0.1328478516664173</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>187</v>
@@ -2360,19 +2360,19 @@
         <v>197181</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>171389</v>
+        <v>172144</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>225043</v>
+        <v>227362</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1010740079901369</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08785331769301002</v>
+        <v>0.08824060155462818</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.115356081431118</v>
+        <v>0.116544765533173</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>3008</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8098</v>
+        <v>8000</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005303656336487</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.00162988490483038</v>
+        <v>0.001624758523026156</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01427832500456833</v>
+        <v>0.0141069184926616</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2498,19 +2498,19 @@
         <v>3008</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8072</v>
+        <v>7906</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.003277657511732455</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001009564823978291</v>
+        <v>0.001004864894853637</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008795846387934785</v>
+        <v>0.008615495767786934</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>7194</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3490</v>
+        <v>3565</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13736</v>
+        <v>13609</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02052089694489019</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009954454808649987</v>
+        <v>0.01016970653958628</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0391848338959641</v>
+        <v>0.03882220171736435</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -2548,19 +2548,19 @@
         <v>25596</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16720</v>
+        <v>17092</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>36913</v>
+        <v>37129</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04513201242839784</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02948135101877344</v>
+        <v>0.0301376171884665</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06508782033880163</v>
+        <v>0.06546806420297552</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>33</v>
@@ -2569,19 +2569,19 @@
         <v>32789</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>22640</v>
+        <v>23062</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>45820</v>
+        <v>44059</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03573055654928027</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02467105736607077</v>
+        <v>0.02513017789099578</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04993060642190481</v>
+        <v>0.04801064083750183</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>86970</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>71806</v>
+        <v>71053</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>103819</v>
+        <v>105651</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2480928253962176</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2048342247762358</v>
+        <v>0.2026862141120677</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.296155470110459</v>
+        <v>0.301381989108646</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>131</v>
@@ -2619,19 +2619,19 @@
         <v>141019</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>121948</v>
+        <v>120969</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>163014</v>
+        <v>164179</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2486552685877695</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2150278409809737</v>
+        <v>0.2133004271637099</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2874380769855154</v>
+        <v>0.289492082121827</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>217</v>
@@ -2640,19 +2640,19 @@
         <v>227990</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>202288</v>
+        <v>202926</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>258144</v>
+        <v>253857</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2484404150654483</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2204337932733062</v>
+        <v>0.2211284694245781</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2812999340892746</v>
+        <v>0.2766278041213264</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>210201</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>191662</v>
+        <v>189454</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>229685</v>
+        <v>229670</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5996228026421756</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5467378318625409</v>
+        <v>0.5404389192032933</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6552045578759831</v>
+        <v>0.6551617063666701</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>329</v>
@@ -2690,19 +2690,19 @@
         <v>342976</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>317317</v>
+        <v>318871</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>366862</v>
+        <v>366231</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6047588930339914</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5595157098123326</v>
+        <v>0.5622560657299128</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6468770556771514</v>
+        <v>0.6457649764909444</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>531</v>
@@ -2711,19 +2711,19 @@
         <v>553176</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>518548</v>
+        <v>523362</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>579495</v>
+        <v>582804</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6027969044665827</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.565062477148544</v>
+        <v>0.5703085244659559</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6314761139874856</v>
+        <v>0.6350819751684891</v>
       </c>
     </row>
     <row r="32">
@@ -2740,19 +2740,19 @@
         <v>46190</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>34243</v>
+        <v>34334</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>59765</v>
+        <v>61548</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1317634750167166</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09768272177720892</v>
+        <v>0.09794248685260977</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1704872131914373</v>
+        <v>0.1755739765737491</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>50</v>
@@ -2761,19 +2761,19 @@
         <v>54529</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>40797</v>
+        <v>40754</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>70023</v>
+        <v>71176</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09615016961335428</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07193616754506145</v>
+        <v>0.0718597249536206</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1234701682467784</v>
+        <v>0.125502373655482</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>94</v>
@@ -2782,19 +2782,19 @@
         <v>100720</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>82720</v>
+        <v>81775</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>122048</v>
+        <v>120809</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1097544664069562</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09013954230532509</v>
+        <v>0.08910982560173804</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1329956368417186</v>
+        <v>0.1316461658634453</v>
       </c>
     </row>
     <row r="33">
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4459</v>
+        <v>5729</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.002883805991682563</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01495301712374361</v>
+        <v>0.01921079701780053</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -2907,19 +2907,19 @@
         <v>4637</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10143</v>
+        <v>10131</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003713319979540613</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.001430236632013736</v>
+        <v>0.001417208472133517</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.00812222474897218</v>
+        <v>0.008112482555498559</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -2928,19 +2928,19 @@
         <v>5497</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2608</v>
+        <v>1871</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>11188</v>
+        <v>11094</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.003553418323256997</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001685593710606929</v>
+        <v>0.00120922875111655</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.007232104593587091</v>
+        <v>0.007171241004901571</v>
       </c>
     </row>
     <row r="35">
@@ -2957,19 +2957,19 @@
         <v>8747</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3566</v>
+        <v>4267</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16679</v>
+        <v>16643</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0293323248630066</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01195742764086181</v>
+        <v>0.01430989001545356</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05593165856563991</v>
+        <v>0.05581181325538982</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>52</v>
@@ -2978,19 +2978,19 @@
         <v>53938</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>41989</v>
+        <v>40496</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>69674</v>
+        <v>69310</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04319360063993766</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03362479685530934</v>
+        <v>0.0324293226271377</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05579460223394197</v>
+        <v>0.05550344550011285</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>60</v>
@@ -2999,19 +2999,19 @@
         <v>62685</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>49973</v>
+        <v>48392</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>81756</v>
+        <v>79423</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04052162525751104</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03230409154739099</v>
+        <v>0.03128167640575241</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05284931119509231</v>
+        <v>0.05134137912866159</v>
       </c>
     </row>
     <row r="36">
@@ -3028,19 +3028,19 @@
         <v>29796</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>21522</v>
+        <v>20440</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>41374</v>
+        <v>40116</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09991914579932583</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.07217396409124058</v>
+        <v>0.06854475085372004</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1387468217759511</v>
+        <v>0.1345262585624779</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>240</v>
@@ -3049,19 +3049,19 @@
         <v>244185</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>217443</v>
+        <v>217524</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>272323</v>
+        <v>272755</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1955417284830036</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1741271075636519</v>
+        <v>0.1741918309191036</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.218075009296561</v>
+        <v>0.2184203273838875</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>272</v>
@@ -3070,19 +3070,19 @@
         <v>273981</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>245180</v>
+        <v>244305</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>305734</v>
+        <v>305634</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1771089960962731</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1584911843000081</v>
+        <v>0.1579258707892934</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1976354028196076</v>
+        <v>0.1975706622853429</v>
       </c>
     </row>
     <row r="37">
@@ -3099,19 +3099,19 @@
         <v>233752</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>218872</v>
+        <v>219260</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>246604</v>
+        <v>247097</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7838726807177211</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7339748010387568</v>
+        <v>0.7352760617002008</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8269727560706911</v>
+        <v>0.8286262010552881</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>839</v>
@@ -3120,19 +3120,19 @@
         <v>843353</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>809314</v>
+        <v>806547</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>877091</v>
+        <v>876036</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6753526858607072</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6480938598480629</v>
+        <v>0.6458779369683203</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.702369736531912</v>
+        <v>0.701524345308484</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1078</v>
@@ -3141,19 +3141,19 @@
         <v>1077104</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1039652</v>
+        <v>1041211</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1111805</v>
+        <v>1112178</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6962715940063471</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6720615315430979</v>
+        <v>0.6730690856143857</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7187030117887475</v>
+        <v>0.7189441698798712</v>
       </c>
     </row>
     <row r="38">
@@ -3170,19 +3170,19 @@
         <v>25047</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>16702</v>
+        <v>17683</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>35912</v>
+        <v>36139</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.08399204262826394</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05600915063007113</v>
+        <v>0.05930042529641868</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1204299071826229</v>
+        <v>0.1211893174608079</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>102</v>
@@ -3191,19 +3191,19 @@
         <v>102646</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>82957</v>
+        <v>85335</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>122552</v>
+        <v>123783</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08219866503681092</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06643128425267184</v>
+        <v>0.06833611879008697</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.09813882085408358</v>
+        <v>0.09912438627791466</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>128</v>
@@ -3212,19 +3212,19 @@
         <v>127693</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>107997</v>
+        <v>108891</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>150013</v>
+        <v>148924</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.0825443663166118</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06981270374112196</v>
+        <v>0.07039061775490751</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0969725051025556</v>
+        <v>0.09626871242583472</v>
       </c>
     </row>
     <row r="39">
@@ -3316,19 +3316,19 @@
         <v>21668</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>13375</v>
+        <v>13951</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>34197</v>
+        <v>34229</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006634216994702989</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004095154344664181</v>
+        <v>0.004271503334982719</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01047035591828218</v>
+        <v>0.01048007634424798</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>20</v>
@@ -3337,19 +3337,19 @@
         <v>20140</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>12545</v>
+        <v>12249</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>30075</v>
+        <v>30238</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005964801558938672</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003715313104296399</v>
+        <v>0.003627802965520091</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.008907277531771767</v>
+        <v>0.008955423555682672</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>40</v>
@@ -3358,19 +3358,19 @@
         <v>41808</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>30876</v>
+        <v>30123</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>57090</v>
+        <v>58076</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.006293944913709683</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004648253196963149</v>
+        <v>0.004534911538072651</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008594566898235116</v>
+        <v>0.008743057884130094</v>
       </c>
     </row>
     <row r="41">
@@ -3387,19 +3387,19 @@
         <v>74689</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>57744</v>
+        <v>58424</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>93152</v>
+        <v>93564</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02286828433651952</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01767999805189959</v>
+        <v>0.01788827138670891</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0285211228011717</v>
+        <v>0.02864714680480967</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>135</v>
@@ -3408,19 +3408,19 @@
         <v>138142</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>117496</v>
+        <v>115783</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>164781</v>
+        <v>162844</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04091266782741106</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03479805523020384</v>
+        <v>0.03429070982772515</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04880229965262386</v>
+        <v>0.04822865713548872</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>209</v>
@@ -3429,19 +3429,19 @@
         <v>212831</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>184696</v>
+        <v>184119</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>242009</v>
+        <v>241833</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03204046590367516</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02780488072302615</v>
+        <v>0.02771797572354952</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03643296658473013</v>
+        <v>0.03640661650237866</v>
       </c>
     </row>
     <row r="42">
@@ -3458,19 +3458,19 @@
         <v>661630</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>617415</v>
+        <v>616323</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>708363</v>
+        <v>708173</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2025767671209274</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1890391612211558</v>
+        <v>0.1887047947670679</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2168854143875546</v>
+        <v>0.2168271557273963</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>679</v>
@@ -3479,19 +3479,19 @@
         <v>704326</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>656203</v>
+        <v>658691</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>756705</v>
+        <v>752258</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2085965040398753</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1943441566658595</v>
+        <v>0.1950810847496757</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2241092356393089</v>
+        <v>0.2227921177831759</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1329</v>
@@ -3500,19 +3500,19 @@
         <v>1365956</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1294808</v>
+        <v>1304090</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1432578</v>
+        <v>1443245</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2056366732703933</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1949256880430114</v>
+        <v>0.1963231330198942</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2156661901303848</v>
+        <v>0.2172720857123915</v>
       </c>
     </row>
     <row r="43">
@@ -3529,19 +3529,19 @@
         <v>2153042</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2095664</v>
+        <v>2098578</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>2206096</v>
+        <v>2208411</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.6592148893450019</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6416471144768844</v>
+        <v>0.6425390962308265</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.6754590215332503</v>
+        <v>0.6761675434924515</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2148</v>
@@ -3550,19 +3550,19 @@
         <v>2187823</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2132807</v>
+        <v>2133734</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>2245069</v>
+        <v>2241953</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.647955984926657</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.6316620043119381</v>
+        <v>0.6319365786489981</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.6649101823185902</v>
+        <v>0.6639873788545164</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>4261</v>
@@ -3571,19 +3571,19 @@
         <v>4340865</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4261931</v>
+        <v>4260123</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4418997</v>
+        <v>4421990</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.6534918500610919</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.6416087114313843</v>
+        <v>0.6413366098971423</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.6652541765532505</v>
+        <v>0.6657046642228132</v>
       </c>
     </row>
     <row r="44">
@@ -3600,19 +3600,19 @@
         <v>355041</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>320763</v>
+        <v>321791</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>393316</v>
+        <v>393184</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1087058422028481</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.09821058340060616</v>
+        <v>0.09852544673923867</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1204247077714546</v>
+        <v>0.1203845904381453</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>313</v>
@@ -3621,19 +3621,19 @@
         <v>326069</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>292531</v>
+        <v>291352</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>360244</v>
+        <v>359538</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.09657004164711799</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.086637324433206</v>
+        <v>0.08628823485697887</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1066913981157572</v>
+        <v>0.1064824865547821</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>659</v>
@@ -3642,19 +3642,19 @@
         <v>681110</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>634284</v>
+        <v>632757</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>735489</v>
+        <v>735121</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.10253706585113</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.09548781284257776</v>
+        <v>0.09525790772622941</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1107235771609756</v>
+        <v>0.1106680884783813</v>
       </c>
     </row>
     <row r="45">
@@ -3988,19 +3988,19 @@
         <v>5690</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1894</v>
+        <v>1875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13235</v>
+        <v>13501</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01310110123986316</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004359821152623357</v>
+        <v>0.004317526244851515</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03047129506255504</v>
+        <v>0.03108424274073715</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5077</v>
+        <v>4852</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002838528221638533</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0161446764680656</v>
+        <v>0.01542870035259025</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4030,19 +4030,19 @@
         <v>6583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2747</v>
+        <v>2704</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14352</v>
+        <v>13813</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008791373605583594</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00366838673538256</v>
+        <v>0.003611198849278548</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01916622928616216</v>
+        <v>0.01844682488172598</v>
       </c>
     </row>
     <row r="5">
@@ -4059,19 +4059,19 @@
         <v>6963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2970</v>
+        <v>3002</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14344</v>
+        <v>14312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0160309952473144</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006838172910021282</v>
+        <v>0.006911216798808557</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03302418887317841</v>
+        <v>0.03295153993842452</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6646</v>
+        <v>7086</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005926923254172559</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02113488559665892</v>
+        <v>0.02253315922961661</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -4101,19 +4101,19 @@
         <v>8827</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4078</v>
+        <v>4095</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15797</v>
+        <v>16028</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01178782950220706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005446193745097624</v>
+        <v>0.005469413000107054</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02109661979333513</v>
+        <v>0.02140486929371615</v>
       </c>
     </row>
     <row r="6">
@@ -4130,19 +4130,19 @@
         <v>51632</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39486</v>
+        <v>39208</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69432</v>
+        <v>66321</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.118872953997238</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09091091300421464</v>
+        <v>0.09027017814181117</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1598549548261068</v>
+        <v>0.1526940658186916</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -4151,19 +4151,19 @@
         <v>51578</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>38150</v>
+        <v>38815</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65854</v>
+        <v>67870</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1640254272697175</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1213210551005376</v>
+        <v>0.123437478966811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2094223411358626</v>
+        <v>0.2158350175514124</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -4172,19 +4172,19 @@
         <v>103210</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>85694</v>
+        <v>85414</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>124342</v>
+        <v>124749</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1378345595783049</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1144425103553142</v>
+        <v>0.114068058855461</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.166055764768344</v>
+        <v>0.1665991366959508</v>
       </c>
     </row>
     <row r="7">
@@ -4201,19 +4201,19 @@
         <v>307555</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>286045</v>
+        <v>287906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>327097</v>
+        <v>326073</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.708092983788671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6585708455364433</v>
+        <v>0.6628553317909255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7530851377693831</v>
+        <v>0.7507292759050814</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -4222,19 +4222,19 @@
         <v>221868</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>204999</v>
+        <v>203415</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>239260</v>
+        <v>237080</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7055664931385695</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6519198013669483</v>
+        <v>0.6468822487948199</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.760873066534976</v>
+        <v>0.7539422887665413</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>480</v>
@@ -4243,19 +4243,19 @@
         <v>529423</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>501125</v>
+        <v>501788</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>553660</v>
+        <v>557082</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7070319938641019</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6692409678728277</v>
+        <v>0.6701262091708494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7394000965574423</v>
+        <v>0.7439705442660643</v>
       </c>
     </row>
     <row r="8">
@@ -4272,19 +4272,19 @@
         <v>62503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47658</v>
+        <v>49018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>80768</v>
+        <v>79302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1439019657269133</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1097247048643529</v>
+        <v>0.1128567254039424</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1859538098456957</v>
+        <v>0.1825797217155372</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -4293,19 +4293,19 @@
         <v>38251</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27423</v>
+        <v>26806</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52046</v>
+        <v>51611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1216426281159019</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08720722255888914</v>
+        <v>0.08524735563306905</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1655120626053171</v>
+        <v>0.1641277321818097</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>91</v>
@@ -4314,19 +4314,19 @@
         <v>100754</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>81472</v>
+        <v>81458</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>123138</v>
+        <v>121898</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1345542434498025</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1088033922741598</v>
+        <v>0.1087849745904374</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1644484421210464</v>
+        <v>0.1627923983984491</v>
       </c>
     </row>
     <row r="9">
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5135</v>
+        <v>5060</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003015509212631359</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0151903655121525</v>
+        <v>0.01496887779744186</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5775</v>
+        <v>5052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001352580111140336</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007663665687729772</v>
+        <v>0.006704431014735468</v>
       </c>
     </row>
     <row r="11">
@@ -4481,19 +4481,19 @@
         <v>7993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3273</v>
+        <v>3212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17090</v>
+        <v>18291</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01923470437233485</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007877060680807334</v>
+        <v>0.007729570694821256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04112352634897918</v>
+        <v>0.04401360822033487</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -4502,19 +4502,19 @@
         <v>6039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2808</v>
+        <v>2628</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12749</v>
+        <v>13042</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01786501409642724</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008307901700738002</v>
+        <v>0.007776006386043254</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03771728941055131</v>
+        <v>0.03858576007574838</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -4523,19 +4523,19 @@
         <v>14032</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7626</v>
+        <v>7695</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24097</v>
+        <v>24676</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0186203418567588</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01012028398637886</v>
+        <v>0.0102118947366005</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03197687567394935</v>
+        <v>0.03274516910774661</v>
       </c>
     </row>
     <row r="12">
@@ -4552,19 +4552,19 @@
         <v>48912</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36291</v>
+        <v>35208</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>64638</v>
+        <v>63508</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1176992915040769</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08732958638080043</v>
+        <v>0.08472184242006649</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1555421108702818</v>
+        <v>0.1528233138945263</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -4573,19 +4573,19 @@
         <v>52246</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39240</v>
+        <v>39178</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68597</v>
+        <v>66599</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1545691265161324</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1160915791687741</v>
+        <v>0.1159079600427256</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2029438195589202</v>
+        <v>0.1970315042772021</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>90</v>
@@ -4594,19 +4594,19 @@
         <v>101158</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>84312</v>
+        <v>82429</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>125304</v>
+        <v>122676</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1342369314255333</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1118816565594447</v>
+        <v>0.1093830717165513</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1662785515819078</v>
+        <v>0.1627907658624015</v>
       </c>
     </row>
     <row r="13">
@@ -4623,19 +4623,19 @@
         <v>303972</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>284404</v>
+        <v>282746</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>321517</v>
+        <v>320374</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7314614377384679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6843737044877459</v>
+        <v>0.6803839931118759</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.773680781505017</v>
+        <v>0.7709298201317034</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -4644,19 +4644,19 @@
         <v>248789</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>231219</v>
+        <v>232542</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>265033</v>
+        <v>264860</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7360381700088262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6840570215663407</v>
+        <v>0.687972358052426</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7840970677956736</v>
+        <v>0.7835845413474571</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>498</v>
@@ -4665,19 +4665,19 @@
         <v>552761</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>522966</v>
+        <v>525017</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>574999</v>
+        <v>577632</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7335142907083645</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6939764542615086</v>
+        <v>0.6966979094102653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7630245389192215</v>
+        <v>0.7665176319463975</v>
       </c>
     </row>
     <row r="14">
@@ -4694,19 +4694,19 @@
         <v>54691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41500</v>
+        <v>40611</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>72400</v>
+        <v>71467</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1316045663851203</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09986343958294112</v>
+        <v>0.0977233912165308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1742182492793754</v>
+        <v>0.1719743228581262</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -4715,19 +4715,19 @@
         <v>29918</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20322</v>
+        <v>20745</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42252</v>
+        <v>43009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08851218016598282</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06012330862808542</v>
+        <v>0.06137262891820582</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1250006810850084</v>
+        <v>0.1272410379623662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>76</v>
@@ -4736,19 +4736,19 @@
         <v>84609</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68234</v>
+        <v>68723</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>104598</v>
+        <v>107486</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1122758558982031</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09054662991381397</v>
+        <v>0.09119533106939094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1388013176989262</v>
+        <v>0.14263363793066</v>
       </c>
     </row>
     <row r="15">
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4829</v>
+        <v>5131</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001535758624842576</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007697101618731971</v>
+        <v>0.008178214340962319</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5049</v>
+        <v>6548</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004396049043843362</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01972039863396042</v>
+        <v>0.02557663278717175</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6466</v>
+        <v>6610</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002364668484911276</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007320048101692716</v>
+        <v>0.007482071818653525</v>
       </c>
     </row>
     <row r="17">
@@ -4911,19 +4911,19 @@
         <v>4296</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1172</v>
+        <v>1090</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10732</v>
+        <v>10926</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006847375198728038</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001867425333733464</v>
+        <v>0.001737784072970243</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01710624418857618</v>
+        <v>0.01741460144682706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6919</v>
+        <v>6154</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007853442697335308</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02702713557024486</v>
+        <v>0.02403912598986862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -4953,19 +4953,19 @@
         <v>6306</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2188</v>
+        <v>2295</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13679</v>
+        <v>13261</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.007138932749650278</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002476443217887763</v>
+        <v>0.002597723229220074</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01548513926426543</v>
+        <v>0.01501106419596778</v>
       </c>
     </row>
     <row r="18">
@@ -4982,19 +4982,19 @@
         <v>88795</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70251</v>
+        <v>71282</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>108954</v>
+        <v>108473</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1415312093368857</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1119738264822702</v>
+        <v>0.1136179569865363</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1736630997178923</v>
+        <v>0.1728968912535806</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -5003,19 +5003,19 @@
         <v>44091</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>33886</v>
+        <v>32373</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>58957</v>
+        <v>57113</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1722272352610378</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1323637829545454</v>
+        <v>0.1264524367643129</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2302954246662687</v>
+        <v>0.2230928820020006</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>120</v>
@@ -5024,19 +5024,19 @@
         <v>132886</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>111055</v>
+        <v>113876</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>157552</v>
+        <v>158525</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1504268929305617</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1257141934842629</v>
+        <v>0.1289082983815561</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1783490096987725</v>
+        <v>0.179450502068326</v>
       </c>
     </row>
     <row r="19">
@@ -5053,19 +5053,19 @@
         <v>473034</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>448135</v>
+        <v>447191</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>494410</v>
+        <v>495392</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7539779944533378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7142901274683895</v>
+        <v>0.7127862030827615</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7880495728864931</v>
+        <v>0.7896136229405746</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>177</v>
@@ -5074,19 +5074,19 @@
         <v>188846</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>172347</v>
+        <v>174435</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>201814</v>
+        <v>203074</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.737662243746165</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6732151217085813</v>
+        <v>0.6813710465608207</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7883189358478158</v>
+        <v>0.7932380556952846</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>625</v>
@@ -5095,19 +5095,19 @@
         <v>661880</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>635138</v>
+        <v>631981</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>690879</v>
+        <v>686417</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7492497030372783</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7189777684846552</v>
+        <v>0.7154040403913581</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7820757062626539</v>
+        <v>0.7770252675632714</v>
       </c>
     </row>
     <row r="20">
@@ -5124,19 +5124,19 @@
         <v>60297</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46879</v>
+        <v>46855</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78125</v>
+        <v>76413</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09610766238620592</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07472109693437606</v>
+        <v>0.0746825925825674</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1245242178165758</v>
+        <v>0.1217956834777253</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -5145,19 +5145,19 @@
         <v>19933</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12167</v>
+        <v>12377</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29174</v>
+        <v>30369</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07786102925161861</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04752749049834135</v>
+        <v>0.04834655289313151</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.113956940315761</v>
+        <v>0.118625910491761</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>76</v>
@@ -5166,19 +5166,19 @@
         <v>80229</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63846</v>
+        <v>62869</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97692</v>
+        <v>98686</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09081980279759835</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07227345619775838</v>
+        <v>0.07116769809595294</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.110587845647673</v>
+        <v>0.1117129771519743</v>
       </c>
     </row>
     <row r="21">
@@ -5270,19 +5270,19 @@
         <v>6790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2687</v>
+        <v>2725</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15228</v>
+        <v>14979</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005873498529174182</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002324613986937944</v>
+        <v>0.002356876582636616</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01317303768912968</v>
+        <v>0.01295758898103983</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7113</v>
+        <v>7541</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.002664337640572254</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.009290709968918917</v>
+        <v>0.009849716335360765</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -5312,19 +5312,19 @@
         <v>8830</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3944</v>
+        <v>3779</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>16907</v>
+        <v>17291</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004594870193723931</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00205228734071724</v>
+        <v>0.001966464245711861</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008798467305933255</v>
+        <v>0.008998100901549521</v>
       </c>
     </row>
     <row r="23">
@@ -5341,19 +5341,19 @@
         <v>13683</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7867</v>
+        <v>7705</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24375</v>
+        <v>23775</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01183666756958095</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.00680539151221995</v>
+        <v>0.006665158627139954</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02108602757306301</v>
+        <v>0.02056687927848822</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -5362,19 +5362,19 @@
         <v>16893</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9664</v>
+        <v>9510</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>27673</v>
+        <v>26993</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02206474091778222</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01262164526675899</v>
+        <v>0.01242061234202851</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03614418424935668</v>
+        <v>0.03525587419968206</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>28</v>
@@ -5383,19 +5383,19 @@
         <v>30577</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20679</v>
+        <v>20054</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43932</v>
+        <v>42525</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0159118463636772</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01076126221180956</v>
+        <v>0.01043623498782029</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02286205625501427</v>
+        <v>0.02212980879401449</v>
       </c>
     </row>
     <row r="24">
@@ -5412,19 +5412,19 @@
         <v>161487</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>136901</v>
+        <v>137925</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>185959</v>
+        <v>187919</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1396962012748612</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1184275630978467</v>
+        <v>0.1193133097795558</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1608655066039529</v>
+        <v>0.1625611069605999</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>112</v>
@@ -5433,19 +5433,19 @@
         <v>123526</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>102219</v>
+        <v>103481</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>144547</v>
+        <v>147901</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.161338917887702</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1335093140735549</v>
+        <v>0.1351570792276405</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.18879400423107</v>
+        <v>0.193174147745195</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>259</v>
@@ -5454,19 +5454,19 @@
         <v>285014</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>254409</v>
+        <v>253650</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>320163</v>
+        <v>318184</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1483193247884205</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1323930998502079</v>
+        <v>0.1319980785492353</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.166610973014902</v>
+        <v>0.1655812108858943</v>
       </c>
     </row>
     <row r="25">
@@ -5483,19 +5483,19 @@
         <v>841924</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>809123</v>
+        <v>808420</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>871404</v>
+        <v>868634</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7283146026874562</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6999402291834982</v>
+        <v>0.6993322843792662</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7538170204477721</v>
+        <v>0.7514208069283271</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>513</v>
@@ -5504,19 +5504,19 @@
         <v>550401</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>523054</v>
+        <v>523121</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>577121</v>
+        <v>575774</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7188837130088791</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6831656285950636</v>
+        <v>0.6832526012178957</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7537822237450534</v>
+        <v>0.7520236407523471</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1298</v>
@@ -5525,19 +5525,19 @@
         <v>1392325</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1347639</v>
+        <v>1352899</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1431232</v>
+        <v>1433517</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7245570463697401</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7013026069853282</v>
+        <v>0.7040403739527779</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7448040495533464</v>
+        <v>0.7459933696786561</v>
       </c>
     </row>
     <row r="26">
@@ -5554,19 +5554,19 @@
         <v>132105</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>111333</v>
+        <v>111311</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>155515</v>
+        <v>155214</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1142790299389275</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09631011735642672</v>
+        <v>0.09629056726075094</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1345298373511665</v>
+        <v>0.1342694829584436</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>68</v>
@@ -5575,19 +5575,19 @@
         <v>72772</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58687</v>
+        <v>56862</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>90422</v>
+        <v>92314</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09504829054506433</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07665139831189584</v>
+        <v>0.07426826503051963</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1181003552526707</v>
+        <v>0.1205719276374361</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>197</v>
@@ -5596,19 +5596,19 @@
         <v>204877</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>178619</v>
+        <v>178364</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>233085</v>
+        <v>231818</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1066169122844384</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09295224911629614</v>
+        <v>0.09281975858128608</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1212957115629851</v>
+        <v>0.1206364782007339</v>
       </c>
     </row>
     <row r="27">
@@ -5747,19 +5747,19 @@
         <v>5399</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1935</v>
+        <v>1985</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12773</v>
+        <v>12078</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01057344927096907</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003790239363835417</v>
+        <v>0.003887616428956706</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02501551199442374</v>
+        <v>0.02365507396880669</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -5768,19 +5768,19 @@
         <v>7734</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2890</v>
+        <v>2831</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>15753</v>
+        <v>16997</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01019900965316378</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00381135042579818</v>
+        <v>0.003732864885384005</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02077424310507811</v>
+        <v>0.02241491236994101</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -5789,19 +5789,19 @@
         <v>13133</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6956</v>
+        <v>6683</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21627</v>
+        <v>23200</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0103496830723204</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005481670078398115</v>
+        <v>0.005266990737959352</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01704420416262395</v>
+        <v>0.01828396065645299</v>
       </c>
     </row>
     <row r="30">
@@ -5818,19 +5818,19 @@
         <v>79219</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>63675</v>
+        <v>64348</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>96317</v>
+        <v>95784</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1551494410343748</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1247080849546672</v>
+        <v>0.1260251188769109</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.188636788905839</v>
+        <v>0.1875927503110662</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>93</v>
@@ -5839,19 +5839,19 @@
         <v>101310</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>83868</v>
+        <v>83869</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>122928</v>
+        <v>124370</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1336033853401941</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1106008937482782</v>
+        <v>0.1106023974361176</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.162112133830828</v>
+        <v>0.164013619667501</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>169</v>
@@ -5860,19 +5860,19 @@
         <v>180529</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>156214</v>
+        <v>156934</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>206763</v>
+        <v>206923</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1422734558306232</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1231112147072367</v>
+        <v>0.1236784156334478</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.162948146783539</v>
+        <v>0.1630745977486014</v>
       </c>
     </row>
     <row r="31">
@@ -5889,19 +5889,19 @@
         <v>383546</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>363640</v>
+        <v>363286</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>404162</v>
+        <v>402950</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7511723290044554</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7121878522805276</v>
+        <v>0.7114939187356564</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7915498417714643</v>
+        <v>0.7891759836903084</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>537</v>
@@ -5910,19 +5910,19 @@
         <v>576873</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>552667</v>
+        <v>552630</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>600469</v>
+        <v>600055</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7607552206342657</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7288326660069351</v>
+        <v>0.7287846250253066</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.79187307262985</v>
+        <v>0.7913271397395832</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>902</v>
@@ -5931,19 +5931,19 @@
         <v>960419</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>927622</v>
+        <v>926836</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>990881</v>
+        <v>992602</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7568990927604741</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7310517996336006</v>
+        <v>0.7304324930425226</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7809056900996464</v>
+        <v>0.78226158336794</v>
       </c>
     </row>
     <row r="32">
@@ -5960,19 +5960,19 @@
         <v>42433</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30815</v>
+        <v>31693</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>55034</v>
+        <v>57460</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08310478069020062</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06035105546257316</v>
+        <v>0.06207105601956823</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1077842176186578</v>
+        <v>0.1125356651789416</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>64</v>
@@ -5981,19 +5981,19 @@
         <v>72373</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>56341</v>
+        <v>54907</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>89709</v>
+        <v>89595</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09544238437237644</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07429942334047789</v>
+        <v>0.07240886786185495</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1183042020961896</v>
+        <v>0.1181537806309484</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>105</v>
@@ -6002,19 +6002,19 @@
         <v>114806</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>96602</v>
+        <v>95594</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>138849</v>
+        <v>138502</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09047776833658237</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07613117617737526</v>
+        <v>0.0753368536425694</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1094258130419053</v>
+        <v>0.1091520232502485</v>
       </c>
     </row>
     <row r="33">
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5659</v>
+        <v>4745</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003558997947557654</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0214304345758562</v>
+        <v>0.01796912440170529</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -6127,19 +6127,19 @@
         <v>4343</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10869</v>
+        <v>10552</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003944215093275516</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0009937359090983497</v>
+        <v>0.001004388764099712</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.009872073802649945</v>
+        <v>0.009583737833276602</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -6148,19 +6148,19 @@
         <v>5282</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2092</v>
+        <v>2024</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>11929</v>
+        <v>11868</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.003869699851240358</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001532292319113473</v>
+        <v>0.001482993330994329</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.00873876107134855</v>
+        <v>0.008693838110624023</v>
       </c>
     </row>
     <row r="35">
@@ -6177,19 +6177,19 @@
         <v>3839</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9463</v>
+        <v>8694</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0145374592583033</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.00370216291805823</v>
+        <v>0.003662345240787431</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03583579838347563</v>
+        <v>0.03292610815758642</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>13</v>
@@ -6198,19 +6198,19 @@
         <v>13756</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>7552</v>
+        <v>7464</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>21855</v>
+        <v>22381</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01249424940375675</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.006858712991348079</v>
+        <v>0.006779285931484313</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01984985257466203</v>
+        <v>0.02032809513696409</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>17</v>
@@ -6219,19 +6219,19 @@
         <v>17595</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10488</v>
+        <v>10450</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>27803</v>
+        <v>28811</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01288948175136275</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.007683509365203136</v>
+        <v>0.007655610580295483</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02036777466680793</v>
+        <v>0.02110633233028674</v>
       </c>
     </row>
     <row r="36">
@@ -6248,19 +6248,19 @@
         <v>32728</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>22885</v>
+        <v>23466</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>44087</v>
+        <v>45402</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1239446581410712</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08666834958666882</v>
+        <v>0.08886930355828604</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1669616645465645</v>
+        <v>0.1719436172205271</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>162</v>
@@ -6269,19 +6269,19 @@
         <v>171308</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>148502</v>
+        <v>149070</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>199367</v>
+        <v>197187</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1555914640278843</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1348782177489038</v>
+        <v>0.1353939486103607</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1810767895031535</v>
+        <v>0.1790965502419936</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>194</v>
@@ -6290,19 +6290,19 @@
         <v>204036</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>178250</v>
+        <v>180045</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>233045</v>
+        <v>231073</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1494698014110737</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1305798559039434</v>
+        <v>0.1318947551148959</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1707209546095566</v>
+        <v>0.1692766919672376</v>
       </c>
     </row>
     <row r="37">
@@ -6319,19 +6319,19 @@
         <v>195847</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>180849</v>
+        <v>181733</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>208702</v>
+        <v>208469</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7416947716011084</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6848930705935891</v>
+        <v>0.6882410063338473</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.790375314157301</v>
+        <v>0.7894931756674539</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>733</v>
@@ -6340,19 +6340,19 @@
         <v>780116</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>746615</v>
+        <v>749532</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>812654</v>
+        <v>809038</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7085466343312671</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.678118979844215</v>
+        <v>0.6807678257836776</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7380991585675714</v>
+        <v>0.7348149351441161</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>927</v>
@@ -6361,19 +6361,19 @@
         <v>975964</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>941598</v>
+        <v>939570</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1008923</v>
+        <v>1008133</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7149587099596088</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6897831830993107</v>
+        <v>0.6882977314925787</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7391038324563025</v>
+        <v>0.7385245830226591</v>
       </c>
     </row>
     <row r="38">
@@ -6390,19 +6390,19 @@
         <v>30700</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>21417</v>
+        <v>21782</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>42818</v>
+        <v>41506</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1162641130519595</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08110684032510568</v>
+        <v>0.08248994294983264</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1621556321014675</v>
+        <v>0.1571866065033382</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>124</v>
@@ -6411,19 +6411,19 @@
         <v>131486</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>109478</v>
+        <v>110187</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>156168</v>
+        <v>154907</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1194234371438164</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09943465719253575</v>
+        <v>0.1000779296758919</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1418406168877396</v>
+        <v>0.1406959404292236</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>155</v>
@@ -6432,19 +6432,19 @@
         <v>162186</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>140117</v>
+        <v>139815</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>185722</v>
+        <v>186535</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1188123070267145</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1026448706653015</v>
+        <v>0.1024237042063818</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1360537772749058</v>
+        <v>0.1366493610825959</v>
       </c>
     </row>
     <row r="39">
@@ -6536,19 +6536,19 @@
         <v>14383</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7718</v>
+        <v>7952</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>24809</v>
+        <v>24477</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004220545619844607</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.002264610800294925</v>
+        <v>0.002333303524815788</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.007279888578225161</v>
+        <v>0.007182406209794539</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -6557,19 +6557,19 @@
         <v>9420</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4204</v>
+        <v>4322</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16792</v>
+        <v>18666</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002665927811650481</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001189694045439325</v>
+        <v>0.001223264387235</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.004752490305747472</v>
+        <v>0.005282738329530257</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>22</v>
@@ -6578,19 +6578,19 @@
         <v>23803</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>15664</v>
+        <v>15610</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>36000</v>
+        <v>36170</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003429186191925667</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002256572242999631</v>
+        <v>0.002248815838640073</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005186266490195932</v>
+        <v>0.005210824263800314</v>
       </c>
     </row>
     <row r="41">
@@ -6607,19 +6607,19 @@
         <v>42173</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>31031</v>
+        <v>31083</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>57937</v>
+        <v>57521</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01237485634431798</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.009105395918615767</v>
+        <v>0.00912068974102382</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01700053191319527</v>
+        <v>0.01687866479542484</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>44</v>
@@ -6628,19 +6628,19 @@
         <v>48296</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>35352</v>
+        <v>35495</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>64860</v>
+        <v>66412</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01366853030654697</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01000502743650696</v>
+        <v>0.01004552156111464</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01835609576587759</v>
+        <v>0.01879542755246664</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>83</v>
@@ -6649,19 +6649,19 @@
         <v>90469</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>71833</v>
+        <v>73865</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>112610</v>
+        <v>111853</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01303338545756182</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01034862932340764</v>
+        <v>0.01064138930388277</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01622316550777457</v>
+        <v>0.01611404070420475</v>
       </c>
     </row>
     <row r="42">
@@ -6678,19 +6678,19 @@
         <v>462772</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>421230</v>
+        <v>420654</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>506689</v>
+        <v>504632</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1357925891305083</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1236028134336084</v>
+        <v>0.1234338768609389</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1486794081569526</v>
+        <v>0.1480757645668803</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>502</v>
@@ -6699,19 +6699,19 @@
         <v>544060</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>503390</v>
+        <v>503181</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>591705</v>
+        <v>588971</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1539761616081129</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.142466092220733</v>
+        <v>0.1424067951760986</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1674604270435162</v>
+        <v>0.1666866319814737</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>930</v>
@@ -6720,19 +6720,19 @@
         <v>1006832</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>946711</v>
+        <v>947985</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1064655</v>
+        <v>1069820</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1450487171881916</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1363874522427541</v>
+        <v>0.1365709990676874</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1533790081084544</v>
+        <v>0.1541229859609281</v>
       </c>
     </row>
     <row r="43">
@@ -6749,19 +6749,19 @@
         <v>2505877</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2452055</v>
+        <v>2450033</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>2556793</v>
+        <v>2557949</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.7353069911700286</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.719513706251099</v>
+        <v>0.71892059098998</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.7502473496487092</v>
+        <v>0.7505867509222989</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2382</v>
@@ -6770,19 +6770,19 @@
         <v>2566894</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2508611</v>
+        <v>2511692</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>2618120</v>
+        <v>2624618</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.7264649849960859</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.7099700052205444</v>
+        <v>0.7108419024446201</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.7409624910539503</v>
+        <v>0.7428015776176584</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>4730</v>
@@ -6791,19 +6791,19 @@
         <v>5072771</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4992921</v>
+        <v>4996580</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>5144688</v>
+        <v>5148447</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.7308060746678594</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.7193025095284711</v>
+        <v>0.7198295655781342</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.7411667932104241</v>
+        <v>0.7417082520494533</v>
       </c>
     </row>
     <row r="44">
@@ -6820,19 +6820,19 @@
         <v>382728</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>347367</v>
+        <v>345945</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>422656</v>
+        <v>424123</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1123050177353005</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1019289567708183</v>
+        <v>0.1015116890938812</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1240213487706215</v>
+        <v>0.1244517813855775</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>337</v>
@@ -6841,19 +6841,19 @@
         <v>364733</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>329906</v>
+        <v>327159</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>402428</v>
+        <v>404045</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1032243952776037</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.09336771871568361</v>
+        <v>0.09259043699998898</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1138923295603175</v>
+        <v>0.1143500903545136</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>700</v>
@@ -6862,19 +6862,19 @@
         <v>747461</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>697275</v>
+        <v>699154</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>807515</v>
+        <v>802794</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1076826364944615</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1004524953185703</v>
+        <v>0.1007232727064179</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1163342464572879</v>
+        <v>0.1156540638456158</v>
       </c>
     </row>
     <row r="45">
@@ -7255,19 +7255,19 @@
         <v>5886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2048</v>
+        <v>2038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13395</v>
+        <v>13752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0137168599493071</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004773686513210081</v>
+        <v>0.004749987534627941</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03121618552948219</v>
+        <v>0.032049839830478</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -7276,19 +7276,19 @@
         <v>3234</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9055</v>
+        <v>8938</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009367625988125234</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002798676820853425</v>
+        <v>0.002831175065964872</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02622757811735578</v>
+        <v>0.02589093065374122</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -7297,19 +7297,19 @@
         <v>9120</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4161</v>
+        <v>4095</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18494</v>
+        <v>18179</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01177775814524604</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005373908787863192</v>
+        <v>0.005289035467622916</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02388358467596874</v>
+        <v>0.02347693999134835</v>
       </c>
     </row>
     <row r="6">
@@ -7326,19 +7326,19 @@
         <v>51232</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38037</v>
+        <v>37836</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67643</v>
+        <v>66787</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1193964053060388</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0886448734122046</v>
+        <v>0.08817768247125705</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1576417513039143</v>
+        <v>0.155646722647928</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -7347,19 +7347,19 @@
         <v>40795</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28305</v>
+        <v>29123</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53791</v>
+        <v>55735</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.118166255163664</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08198913299875916</v>
+        <v>0.08435844654741331</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1558125516127363</v>
+        <v>0.1614415479857278</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>82</v>
@@ -7368,19 +7368,19 @@
         <v>92027</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>74088</v>
+        <v>75233</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111960</v>
+        <v>111791</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1188479440409896</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09568090297842873</v>
+        <v>0.09715898986999635</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1445910617414109</v>
+        <v>0.1443726373633051</v>
       </c>
     </row>
     <row r="7">
@@ -7397,19 +7397,19 @@
         <v>271419</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>249543</v>
+        <v>250537</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>291564</v>
+        <v>291810</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6325436714852944</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5815612064425043</v>
+        <v>0.583876109718954</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.679490508914074</v>
+        <v>0.6800646620174046</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>217</v>
@@ -7418,19 +7418,19 @@
         <v>226719</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>207604</v>
+        <v>210005</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>245395</v>
+        <v>246506</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6567180880629468</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6013484250631339</v>
+        <v>0.6083041672440826</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7108134829125859</v>
+        <v>0.714031888537615</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>471</v>
@@ -7439,19 +7439,19 @@
         <v>498140</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>470222</v>
+        <v>470447</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>524323</v>
+        <v>524499</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.643321812007565</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6072677079728451</v>
+        <v>0.6075579575306664</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.677136520072525</v>
+        <v>0.6773641287670554</v>
       </c>
     </row>
     <row r="8">
@@ -7468,19 +7468,19 @@
         <v>100555</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>83980</v>
+        <v>81281</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>121371</v>
+        <v>120185</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2343430632593596</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1957161943538675</v>
+        <v>0.1894255899454122</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2828559979871788</v>
+        <v>0.2800906178099619</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>74</v>
@@ -7489,19 +7489,19 @@
         <v>74483</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60892</v>
+        <v>58850</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90757</v>
+        <v>89896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2157480307852639</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1763798818190373</v>
+        <v>0.1704648261959622</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2628869493177541</v>
+        <v>0.260392456680308</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>165</v>
@@ -7510,19 +7510,19 @@
         <v>175038</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152474</v>
+        <v>152319</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>198497</v>
+        <v>198327</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2260524858061994</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.196912464853336</v>
+        <v>0.1967117332726967</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2563485483918953</v>
+        <v>0.2561290738725318</v>
       </c>
     </row>
     <row r="9">
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7899</v>
+        <v>7885</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004222307505698283</v>
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02099418746861196</v>
+        <v>0.02095727992773061</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6859</v>
+        <v>6749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005138886293360526</v>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01842501277337939</v>
+        <v>0.01812877759348223</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -7656,19 +7656,19 @@
         <v>3502</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10151</v>
+        <v>9511</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004678171156237772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00126412264291485</v>
+        <v>0.001277925796651834</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01356227742665015</v>
+        <v>0.01270687693444836</v>
       </c>
     </row>
     <row r="11">
@@ -7698,19 +7698,19 @@
         <v>5542</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1950</v>
+        <v>2032</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12367</v>
+        <v>12704</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01488728985039065</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005238445067002122</v>
+        <v>0.005458309867291716</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0332189978303755</v>
+        <v>0.03412470699167085</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -7719,19 +7719,19 @@
         <v>5542</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1954</v>
+        <v>1998</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12638</v>
+        <v>12534</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007404245427878473</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002610049099730151</v>
+        <v>0.002669021207386551</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01688443309846594</v>
+        <v>0.01674551124909886</v>
       </c>
     </row>
     <row r="12">
@@ -7748,19 +7748,19 @@
         <v>49713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37021</v>
+        <v>37722</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63931</v>
+        <v>63397</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1321320665893856</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0983999181204325</v>
+        <v>0.1002611516854571</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1699220525845396</v>
+        <v>0.1685028246649457</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -7769,19 +7769,19 @@
         <v>44779</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>34032</v>
+        <v>32436</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>58783</v>
+        <v>57895</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1202866054503487</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09141743603223934</v>
+        <v>0.08713072794118076</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1579022047545609</v>
+        <v>0.1555177578738153</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>91</v>
@@ -7790,19 +7790,19 @@
         <v>94492</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>77702</v>
+        <v>76675</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>113832</v>
+        <v>112976</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1262406852593227</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1038088271433262</v>
+        <v>0.1024375923897856</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1520791418377266</v>
+        <v>0.150934737113772</v>
       </c>
     </row>
     <row r="13">
@@ -7819,19 +7819,19 @@
         <v>248687</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>228363</v>
+        <v>229848</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>267363</v>
+        <v>268429</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6609888058806949</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6069686922325258</v>
+        <v>0.610916473839332</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.710626477318252</v>
+        <v>0.7134607108720827</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>220</v>
@@ -7840,19 +7840,19 @@
         <v>233065</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>214689</v>
+        <v>212659</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>252076</v>
+        <v>251570</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6260584595244829</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5766986993576328</v>
+        <v>0.5712458546483048</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6771263878985545</v>
+        <v>0.6757667814585007</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>449</v>
@@ -7861,19 +7861,19 @@
         <v>481752</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>455815</v>
+        <v>456033</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>507839</v>
+        <v>508876</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6436160765322831</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6089650761430184</v>
+        <v>0.6092555799622308</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6784684474987511</v>
+        <v>0.6798534732055154</v>
       </c>
     </row>
     <row r="14">
@@ -7890,19 +7890,19 @@
         <v>76247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60695</v>
+        <v>60257</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93024</v>
+        <v>92879</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2026568200242213</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1613217945855926</v>
+        <v>0.1601577358185845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2472494512866713</v>
+        <v>0.2468646656285125</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>83</v>
@@ -7911,19 +7911,19 @@
         <v>86974</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70557</v>
+        <v>70312</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>103466</v>
+        <v>104966</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2336287588814172</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1895308213905306</v>
+        <v>0.1888726804566793</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2779316933423175</v>
+        <v>0.2819597120530919</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>157</v>
@@ -7932,19 +7932,19 @@
         <v>163220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>138449</v>
+        <v>139511</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>186190</v>
+        <v>187485</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2180608216242779</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.184966564585257</v>
+        <v>0.1863851141081933</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2487479755699902</v>
+        <v>0.2504779835093551</v>
       </c>
     </row>
     <row r="15">
@@ -8083,19 +8083,19 @@
         <v>3295</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>796</v>
+        <v>854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9910</v>
+        <v>9983</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006326828184639159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001528361710106487</v>
+        <v>0.001639571928440486</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01902663769243906</v>
+        <v>0.01916698159835642</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -8117,19 +8117,19 @@
         <v>3295</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10601</v>
+        <v>10428</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004796839693996166</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001161103323788105</v>
+        <v>0.001158847925934841</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01543225169419039</v>
+        <v>0.01518029179631977</v>
       </c>
     </row>
     <row r="18">
@@ -8146,19 +8146,19 @@
         <v>69434</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54593</v>
+        <v>55563</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>86752</v>
+        <v>86929</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1333147641217628</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1048192016824372</v>
+        <v>0.1066810372745417</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1665643972704375</v>
+        <v>0.1669042149996637</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -8167,19 +8167,19 @@
         <v>20690</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12659</v>
+        <v>12788</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31160</v>
+        <v>30609</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1245491719735239</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07619995820809142</v>
+        <v>0.07697974586795063</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1875720813451136</v>
+        <v>0.1842576380462879</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>85</v>
@@ -8188,19 +8188,19 @@
         <v>90125</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>75233</v>
+        <v>73885</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>111958</v>
+        <v>110383</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.131195020277124</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1095173105512213</v>
+        <v>0.1075551263307639</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1629770171056348</v>
+        <v>0.1606849404683335</v>
       </c>
     </row>
     <row r="19">
@@ -8217,19 +8217,19 @@
         <v>330954</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>310077</v>
+        <v>307826</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>353383</v>
+        <v>353412</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6354361111422115</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5953514222890357</v>
+        <v>0.5910300347490075</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6785006199466883</v>
+        <v>0.6785557069611785</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>97</v>
@@ -8238,19 +8238,19 @@
         <v>105519</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>92455</v>
+        <v>92035</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118269</v>
+        <v>117581</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6351863909817487</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5565440060796859</v>
+        <v>0.5540155873240421</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7119340456559465</v>
+        <v>0.7077920255336536</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>417</v>
@@ -8259,19 +8259,19 @@
         <v>436473</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>409971</v>
+        <v>408977</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>461769</v>
+        <v>461496</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6353757224355422</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.596796029570812</v>
+        <v>0.5953491103579501</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.67219948112413</v>
+        <v>0.671801829535193</v>
       </c>
     </row>
     <row r="20">
@@ -8288,19 +8288,19 @@
         <v>117146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>98598</v>
+        <v>98547</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>137469</v>
+        <v>136921</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2249222965513865</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1893093817149415</v>
+        <v>0.1892108326021442</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2639412943389312</v>
+        <v>0.2628899134997891</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -8309,19 +8309,19 @@
         <v>39913</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29207</v>
+        <v>28612</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52024</v>
+        <v>51417</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2402644370447274</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1758176041391542</v>
+        <v>0.1722310185086129</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3131639765101132</v>
+        <v>0.3095138794496056</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>149</v>
@@ -8330,19 +8330,19 @@
         <v>157060</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>134444</v>
+        <v>135282</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>179812</v>
+        <v>181144</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2286324175933377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1957107176092336</v>
+        <v>0.1969305071377408</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2617527260218152</v>
+        <v>0.2636926040423514</v>
       </c>
     </row>
     <row r="21">
@@ -8434,19 +8434,19 @@
         <v>7272</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3253</v>
+        <v>3290</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14444</v>
+        <v>14227</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006356807507544004</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00284420589423419</v>
+        <v>0.002876515305365974</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01262690892109778</v>
+        <v>0.01243743665464064</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -8455,19 +8455,19 @@
         <v>4302</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1044</v>
+        <v>1245</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9611</v>
+        <v>10668</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005233858634432405</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001270535552545634</v>
+        <v>0.001514929537093879</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01169373391799968</v>
+        <v>0.01297986455501846</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -8476,19 +8476,19 @@
         <v>11573</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5922</v>
+        <v>6105</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20031</v>
+        <v>19220</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005887307940511569</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003012620459562035</v>
+        <v>0.00310568930760939</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01018969153797476</v>
+        <v>0.009777367528172747</v>
       </c>
     </row>
     <row r="23">
@@ -8505,19 +8505,19 @@
         <v>17170</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10215</v>
+        <v>9377</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27378</v>
+        <v>25872</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01500991456159811</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008930161488262693</v>
+        <v>0.008197090628463638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02393384288850842</v>
+        <v>0.02261750524921669</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -8526,19 +8526,19 @@
         <v>16870</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9866</v>
+        <v>10316</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26385</v>
+        <v>27750</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02052568655676225</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01200439157861956</v>
+        <v>0.01255162989570159</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03210311872762244</v>
+        <v>0.03376410343104846</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -8547,19 +8547,19 @@
         <v>34039</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23598</v>
+        <v>23770</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>46809</v>
+        <v>46699</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01731603252082761</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01200417033947244</v>
+        <v>0.01209174257162481</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02381199042407837</v>
+        <v>0.02375607365023956</v>
       </c>
     </row>
     <row r="24">
@@ -8576,19 +8576,19 @@
         <v>155140</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>135606</v>
+        <v>131549</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>181402</v>
+        <v>177015</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1356239677718707</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1185471194641</v>
+        <v>0.1150010337868861</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1585828288922038</v>
+        <v>0.1547475058488355</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>90</v>
@@ -8597,19 +8597,19 @@
         <v>93521</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>76285</v>
+        <v>77491</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>114972</v>
+        <v>113463</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1137892143375414</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09281713129985618</v>
+        <v>0.09428525911942802</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1398881050301425</v>
+        <v>0.13805296025234</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>242</v>
@@ -8618,19 +8618,19 @@
         <v>248661</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>221256</v>
+        <v>221987</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>279698</v>
+        <v>280281</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1264949615195453</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1125540239863632</v>
+        <v>0.1129259029009853</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1422836617777908</v>
+        <v>0.1425799360800404</v>
       </c>
     </row>
     <row r="25">
@@ -8647,19 +8647,19 @@
         <v>750348</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>709698</v>
+        <v>717497</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>777726</v>
+        <v>782689</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6559583216514175</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6204215109563643</v>
+        <v>0.6272399037183144</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6798920656967808</v>
+        <v>0.6842309867393234</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>525</v>
@@ -8668,19 +8668,19 @@
         <v>542933</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>516043</v>
+        <v>515460</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>568542</v>
+        <v>569633</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6605960188788846</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6278794756488365</v>
+        <v>0.6271698557550669</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6917551800962751</v>
+        <v>0.6930824005804295</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1242</v>
@@ -8689,19 +8689,19 @@
         <v>1293280</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1247428</v>
+        <v>1248001</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1331354</v>
+        <v>1331888</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6578973207389628</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.634572302368051</v>
+        <v>0.6348638067062103</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6772659370191897</v>
+        <v>0.6775371149080213</v>
       </c>
     </row>
     <row r="26">
@@ -8718,19 +8718,19 @@
         <v>213967</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>189601</v>
+        <v>190299</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>244460</v>
+        <v>242523</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1870509885075696</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.165749877289405</v>
+        <v>0.1663605307786665</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2137083999385679</v>
+        <v>0.2120145717968652</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>159</v>
@@ -8739,19 +8739,19 @@
         <v>164258</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>141479</v>
+        <v>143863</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>187048</v>
+        <v>189803</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1998552215923793</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1721405607385947</v>
+        <v>0.1750401356475409</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2275846224161271</v>
+        <v>0.230937239681771</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>365</v>
@@ -8760,19 +8760,19 @@
         <v>378224</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>344633</v>
+        <v>346137</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>410679</v>
+        <v>417431</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1924043772801527</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1753162736543339</v>
+        <v>0.1760811956151041</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2089144449904845</v>
+        <v>0.2123489381899926</v>
       </c>
     </row>
     <row r="27">
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7815</v>
+        <v>7145</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.002096788234115242</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01259081944969781</v>
+        <v>0.01151085119999536</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4860</v>
+        <v>5268</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.001202982081577523</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.006592459653361265</v>
+        <v>0.007145934427464053</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7420</v>
+        <v>7891</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.001611542785837263</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.005464049030862813</v>
+        <v>0.00581127119326233</v>
       </c>
     </row>
     <row r="29">
@@ -8935,19 +8935,19 @@
         <v>8457</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4000</v>
+        <v>3493</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16417</v>
+        <v>17088</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01362523715207098</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.006443996138867427</v>
+        <v>0.005627271064260505</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02644944840608832</v>
+        <v>0.02752936604625419</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>12</v>
@@ -8956,19 +8956,19 @@
         <v>12699</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7232</v>
+        <v>7044</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21304</v>
+        <v>21288</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01722641519866871</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009809393518201676</v>
+        <v>0.009555601063152961</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02889884900732687</v>
+        <v>0.02887652142170612</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>20</v>
@@ -8977,19 +8977,19 @@
         <v>21157</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13228</v>
+        <v>13223</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32096</v>
+        <v>33219</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01558030901031307</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.009741514183035135</v>
+        <v>0.009737578280660785</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02363608190061006</v>
+        <v>0.02446349920644847</v>
       </c>
     </row>
     <row r="30">
@@ -9006,19 +9006,19 @@
         <v>63373</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>49706</v>
+        <v>47741</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>80981</v>
+        <v>79994</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1020981666598113</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08007947720082467</v>
+        <v>0.07691406877789152</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1304666841382683</v>
+        <v>0.1288754842840272</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>92</v>
@@ -9027,19 +9027,19 @@
         <v>99213</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>82345</v>
+        <v>81329</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>119070</v>
+        <v>119684</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1345788686537233</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1116983990405353</v>
+        <v>0.1103195163096916</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1615147213828281</v>
+        <v>0.1623478190805004</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>152</v>
@@ -9048,19 +9048,19 @@
         <v>162586</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>138182</v>
+        <v>141339</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>186326</v>
+        <v>192157</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1197318702930542</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1017605287611957</v>
+        <v>0.1040852793026433</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1372147459829617</v>
+        <v>0.1415087540143279</v>
       </c>
     </row>
     <row r="31">
@@ -9077,19 +9077,19 @@
         <v>380180</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>354161</v>
+        <v>356853</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>401979</v>
+        <v>406253</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6124955061349281</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5705775142054046</v>
+        <v>0.574915324573241</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6476155230441074</v>
+        <v>0.6545019339799827</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>433</v>
@@ -9098,19 +9098,19 @@
         <v>457346</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>431519</v>
+        <v>431192</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>481820</v>
+        <v>484722</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6203749637550005</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.585341098899342</v>
+        <v>0.5848978643340649</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6535732162182224</v>
+        <v>0.6575101807297252</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>796</v>
@@ -9119,19 +9119,19 @@
         <v>837526</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>799566</v>
+        <v>797251</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>878110</v>
+        <v>871848</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6167732468219704</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5888186120077056</v>
+        <v>0.5871143472427345</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6466608036108539</v>
+        <v>0.6420487508148547</v>
       </c>
     </row>
     <row r="32">
@@ -9148,19 +9148,19 @@
         <v>167395</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>147057</v>
+        <v>143671</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>192036</v>
+        <v>189116</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2696843018190744</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2369196045560386</v>
+        <v>0.2314630558726465</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3093839706946875</v>
+        <v>0.3046783790624824</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>160</v>
@@ -9169,19 +9169,19 @@
         <v>167064</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>146502</v>
+        <v>145372</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>190981</v>
+        <v>191423</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2266167703110301</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1987258298265165</v>
+        <v>0.197192137085952</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2590591691066517</v>
+        <v>0.2596592002185875</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>325</v>
@@ -9190,19 +9190,19 @@
         <v>334459</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>300765</v>
+        <v>305920</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>367930</v>
+        <v>370208</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.246303031088825</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2214905057819845</v>
+        <v>0.2252868272962239</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2709524816755673</v>
+        <v>0.2726295021404031</v>
       </c>
     </row>
     <row r="33">
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5320</v>
+        <v>5239</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.003683362867025182</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01858547348444682</v>
+        <v>0.01830088588208669</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5251</v>
+        <v>6561</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0007746349982017052</v>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.003858221405304813</v>
+        <v>0.004820634157383335</v>
       </c>
     </row>
     <row r="35">
@@ -9370,19 +9370,19 @@
         <v>29999</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>19184</v>
+        <v>19618</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>43249</v>
+        <v>43391</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02791013087651558</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01784809247674549</v>
+        <v>0.01825195563180326</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04023685834406197</v>
+        <v>0.04036981464079249</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>26</v>
@@ -9391,19 +9391,19 @@
         <v>29999</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>20255</v>
+        <v>20539</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>44780</v>
+        <v>44361</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02204045010873387</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01488159368845532</v>
+        <v>0.01509014278096112</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03290027155430032</v>
+        <v>0.03259206001662908</v>
       </c>
     </row>
     <row r="36">
@@ -9420,19 +9420,19 @@
         <v>23884</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15475</v>
+        <v>16142</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>35799</v>
+        <v>36229</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.08343851888326081</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05406008164742147</v>
+        <v>0.05639033183712535</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1250639025610359</v>
+        <v>0.1265668993204525</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>128</v>
@@ -9441,19 +9441,19 @@
         <v>143428</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>121880</v>
+        <v>120948</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>170286</v>
+        <v>166330</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1334402453586707</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1133928222498765</v>
+        <v>0.1125256553807224</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1584276012594925</v>
+        <v>0.1547477122778875</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>150</v>
@@ -9462,19 +9462,19 @@
         <v>167312</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>142884</v>
+        <v>142621</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>194316</v>
+        <v>194349</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1229245593682639</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1049771071369753</v>
+        <v>0.104784364418275</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1427642740282075</v>
+        <v>0.1427889596673445</v>
       </c>
     </row>
     <row r="37">
@@ -9491,19 +9491,19 @@
         <v>187416</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>171719</v>
+        <v>169529</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>203288</v>
+        <v>201459</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.654734486857082</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5998993198514901</v>
+        <v>0.5922472655833168</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7101830873776853</v>
+        <v>0.7037938837851758</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>606</v>
@@ -9512,19 +9512,19 @@
         <v>657152</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>626289</v>
+        <v>626597</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>690854</v>
+        <v>691146</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.611390329445252</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5826771388967954</v>
+        <v>0.5829634472550602</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6427458302682555</v>
+        <v>0.6430171556520993</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>783</v>
@@ -9533,19 +9533,19 @@
         <v>844567</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>802793</v>
+        <v>802545</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>879459</v>
+        <v>878752</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6205058856668101</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5898141317287759</v>
+        <v>0.5896321419955952</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6461404688926372</v>
+        <v>0.6456215751574332</v>
       </c>
     </row>
     <row r="38">
@@ -9562,19 +9562,19 @@
         <v>73893</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>60202</v>
+        <v>60254</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>88512</v>
+        <v>89895</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.258143631392632</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2103155604621158</v>
+        <v>0.2104957527357012</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3092143590949817</v>
+        <v>0.314046978309476</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>226</v>
@@ -9583,19 +9583,19 @@
         <v>244269</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>218616</v>
+        <v>217546</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>271691</v>
+        <v>272711</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2272592943195617</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2033923828807894</v>
+        <v>0.2023972489653908</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2527714832193332</v>
+        <v>0.2537203208985341</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>297</v>
@@ -9604,19 +9604,19 @@
         <v>318162</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>287263</v>
+        <v>289077</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>351868</v>
+        <v>353771</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2337544698579904</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2110530752397207</v>
+        <v>0.2123853439433295</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2585179834255114</v>
+        <v>0.259916801635649</v>
       </c>
     </row>
     <row r="39">
@@ -9708,19 +9708,19 @@
         <v>11216</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5438</v>
+        <v>5608</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20284</v>
+        <v>20764</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003321269054019856</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001610292280352049</v>
+        <v>0.001660612768582036</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.006006567349095233</v>
+        <v>0.006148624955410603</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>7</v>
@@ -9729,19 +9729,19 @@
         <v>7102</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3135</v>
+        <v>2954</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14194</v>
+        <v>14358</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002018877561020386</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0008913002288137645</v>
+        <v>0.0008398593863857712</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.004035087416339293</v>
+        <v>0.004081764776419888</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>17</v>
@@ -9750,19 +9750,19 @@
         <v>18317</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>10691</v>
+        <v>10779</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>28256</v>
+        <v>29149</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002656797295279632</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001550630222534553</v>
+        <v>0.001563380661195755</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.004098239279158822</v>
+        <v>0.004227809728860249</v>
       </c>
     </row>
     <row r="41">
@@ -9779,19 +9779,19 @@
         <v>34808</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>23918</v>
+        <v>23550</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>50468</v>
+        <v>49079</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0103073672670339</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.007082659204191038</v>
+        <v>0.006973552439580123</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01494466661659517</v>
+        <v>0.01453329445714298</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>62</v>
@@ -9800,19 +9800,19 @@
         <v>68344</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>52378</v>
+        <v>52655</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>85719</v>
+        <v>86699</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01942946781218166</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01489053531703544</v>
+        <v>0.01496928075465415</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02436891709266281</v>
+        <v>0.02464740982615744</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>94</v>
@@ -9821,19 +9821,19 @@
         <v>103152</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>83673</v>
+        <v>82035</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>129557</v>
+        <v>124641</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01496140426375893</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01213610750023784</v>
+        <v>0.01189851672159039</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01879114284058729</v>
+        <v>0.0180781792142786</v>
       </c>
     </row>
     <row r="42">
@@ -9850,19 +9850,19 @@
         <v>412776</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>380266</v>
+        <v>375936</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>454125</v>
+        <v>453131</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1222312807863254</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1126045140759638</v>
+        <v>0.1113221366744072</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1344757002468854</v>
+        <v>0.134181252397385</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>407</v>
@@ -9871,19 +9871,19 @@
         <v>442427</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>406361</v>
+        <v>404226</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>487544</v>
+        <v>484938</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1257763522579208</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1155233020178981</v>
+        <v>0.1149164558117359</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1386026366919714</v>
+        <v>0.1378618772446206</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>802</v>
@@ -9892,19 +9892,19 @@
         <v>855203</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>806651</v>
+        <v>801747</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>921558</v>
+        <v>908293</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1240399534383294</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1169980106409228</v>
+        <v>0.1162866110407798</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1336643003635055</v>
+        <v>0.1317402707791081</v>
       </c>
     </row>
     <row r="43">
@@ -9921,19 +9921,19 @@
         <v>2169004</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2107873</v>
+        <v>2114306</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>2222788</v>
+        <v>2226419</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.6422861734089319</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6241839910968807</v>
+        <v>0.626089029354112</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.6582125195260243</v>
+        <v>0.6592879832326481</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2098</v>
@@ -9942,19 +9942,19 @@
         <v>2222733</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2168262</v>
+        <v>2165156</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>2286720</v>
+        <v>2276238</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.6318951397529788</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.6164095320712427</v>
+        <v>0.6155265400939927</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.6500856894940622</v>
+        <v>0.6471059035582138</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>4158</v>
@@ -9963,19 +9963,19 @@
         <v>4391738</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4303308</v>
+        <v>4305574</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4463879</v>
+        <v>4473375</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.6369847349047548</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.6241587460244229</v>
+        <v>0.6244874368346748</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.6474482667218932</v>
+        <v>0.6488255618360849</v>
       </c>
     </row>
     <row r="44">
@@ -9992,19 +9992,19 @@
         <v>749202</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>700418</v>
+        <v>699648</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>798490</v>
+        <v>799913</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2218539094836889</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2074080584373725</v>
+        <v>0.2071800234941956</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2364490305514304</v>
+        <v>0.2368704470265857</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>739</v>
@@ -10013,19 +10013,19 @@
         <v>776961</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>719484</v>
+        <v>727290</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>824614</v>
+        <v>826846</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2208801626158984</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2045402226460881</v>
+        <v>0.2067594186477547</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2344272759023719</v>
+        <v>0.2350618393530886</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1458</v>
@@ -10034,19 +10034,19 @@
         <v>1526163</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1463739</v>
+        <v>1462570</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1599817</v>
+        <v>1604780</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2213571100978772</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2123030292605612</v>
+        <v>0.2121335360840903</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2320400266669882</v>
+        <v>0.2327599305567829</v>
       </c>
     </row>
     <row r="45">
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7936</v>
+        <v>8004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002499007983557127</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01445107306089544</v>
+        <v>0.01457368536461441</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -10404,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3028</v>
+        <v>3525</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002060596623003047</v>
@@ -10413,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006242067336259398</v>
+        <v>0.007266590506794949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -10422,19 +10422,19 @@
         <v>2372</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7694</v>
+        <v>7819</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002293373174311558</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.000419931024794584</v>
+        <v>0.0004209212728542608</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007438950673349926</v>
+        <v>0.007559081201692329</v>
       </c>
     </row>
     <row r="5">
@@ -10451,19 +10451,19 @@
         <v>9799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4555</v>
+        <v>4455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19820</v>
+        <v>20447</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01784200154143978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008293392026675298</v>
+        <v>0.008112203319967778</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03608960083425578</v>
+        <v>0.03723159816044235</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -10472,19 +10472,19 @@
         <v>6474</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2648</v>
+        <v>2681</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13026</v>
+        <v>13881</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01334540183983635</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005458281171814452</v>
+        <v>0.005526473590796381</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02684979025198246</v>
+        <v>0.02861208897545787</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -10493,19 +10493,19 @@
         <v>16273</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9437</v>
+        <v>9383</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27124</v>
+        <v>26652</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01573289236889396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009123443757967439</v>
+        <v>0.009071807048741899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02622344472798306</v>
+        <v>0.02576720228285751</v>
       </c>
     </row>
     <row r="6">
@@ -10522,19 +10522,19 @@
         <v>45305</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32823</v>
+        <v>32816</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61458</v>
+        <v>61206</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08249553453392174</v>
+        <v>0.08249553453392175</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05976632903768239</v>
+        <v>0.05975435457076567</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1119083405213946</v>
+        <v>0.1114489223261123</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>58</v>
@@ -10543,19 +10543,19 @@
         <v>36881</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28574</v>
+        <v>28319</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47409</v>
+        <v>47819</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07602048065103595</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05889841791776155</v>
+        <v>0.05837155596916595</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09772103613353342</v>
+        <v>0.09856509377362478</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>99</v>
@@ -10564,19 +10564,19 @@
         <v>82186</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>66559</v>
+        <v>66751</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>98570</v>
+        <v>100204</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07945844063111046</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06435014385444492</v>
+        <v>0.06453541404332383</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09529880361228137</v>
+        <v>0.09687808279014049</v>
       </c>
     </row>
     <row r="7">
@@ -10593,19 +10593,19 @@
         <v>389975</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>366894</v>
+        <v>364968</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>411893</v>
+        <v>410142</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7101014892936749</v>
+        <v>0.710101489293675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.668073343472644</v>
+        <v>0.6645660705833926</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7500112694810912</v>
+        <v>0.7468229077498825</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>484</v>
@@ -10614,19 +10614,19 @@
         <v>347981</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>329935</v>
+        <v>332184</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>363923</v>
+        <v>365240</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7172691686110725</v>
+        <v>0.7172691686110724</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.680072223236486</v>
+        <v>0.6847085427193227</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7501291720831049</v>
+        <v>0.7528435686126236</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>888</v>
@@ -10635,19 +10635,19 @@
         <v>737956</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>709903</v>
+        <v>710006</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>765903</v>
+        <v>764541</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7134634559345568</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6863417746935407</v>
+        <v>0.6864410090650653</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7404826313092566</v>
+        <v>0.7391666399738734</v>
       </c>
     </row>
     <row r="8">
@@ -10664,19 +10664,19 @@
         <v>102731</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86423</v>
+        <v>84755</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>123609</v>
+        <v>124949</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1870619666474063</v>
+        <v>0.1870619666474064</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1573665594662736</v>
+        <v>0.1543299128042145</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2250782463077361</v>
+        <v>0.2275192613218492</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>130</v>
@@ -10685,19 +10685,19 @@
         <v>92811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>79244</v>
+        <v>77987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>109624</v>
+        <v>106492</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1913043522750522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1633400916911812</v>
+        <v>0.1607502058373333</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2259598091781141</v>
+        <v>0.2195042888483403</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>228</v>
@@ -10706,19 +10706,19 @@
         <v>195542</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>171176</v>
+        <v>171223</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>221558</v>
+        <v>221604</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1890518378911272</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1654945367606586</v>
+        <v>0.1655400684609458</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2142047764010712</v>
+        <v>0.2142485844869493</v>
       </c>
     </row>
     <row r="9">
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3300</v>
+        <v>3310</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001554780308712948</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007807345809598553</v>
+        <v>0.007831742134243272</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -10847,16 +10847,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3951</v>
+        <v>3632</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0007260078196538286</v>
+        <v>0.0007260078196538285</v>
       </c>
       <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004365282976438596</v>
+        <v>0.004011995313102682</v>
       </c>
     </row>
     <row r="11">
@@ -10873,19 +10873,19 @@
         <v>2529</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7282</v>
+        <v>7220</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005242141113550795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001201858801368391</v>
+        <v>0.001229332396540454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01509215367171186</v>
+        <v>0.01496282964541391</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -10894,19 +10894,19 @@
         <v>6613</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2907</v>
+        <v>2876</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14027</v>
+        <v>12836</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01564619188678435</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006878278787264153</v>
+        <v>0.006803871315917546</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03318539282244288</v>
+        <v>0.03036857238070573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -10915,19 +10915,19 @@
         <v>9143</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4645</v>
+        <v>4911</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16922</v>
+        <v>17328</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01010033373093465</v>
+        <v>0.01010033373093464</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005131272892671468</v>
+        <v>0.005425705202508914</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01869367605450838</v>
+        <v>0.01914215710504371</v>
       </c>
     </row>
     <row r="12">
@@ -10944,19 +10944,19 @@
         <v>28457</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19556</v>
+        <v>19340</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40408</v>
+        <v>40382</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.05897530020448345</v>
+        <v>0.05897530020448344</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04053012178746865</v>
+        <v>0.04008098566007293</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08374365458877851</v>
+        <v>0.08369122552128558</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -10965,19 +10965,19 @@
         <v>38713</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>29337</v>
+        <v>29688</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49592</v>
+        <v>49303</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09158732882408879</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06940569779954374</v>
+        <v>0.07023570539143695</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1173266557329927</v>
+        <v>0.1166409187124575</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>86</v>
@@ -10986,19 +10986,19 @@
         <v>67169</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>52910</v>
+        <v>53604</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82501</v>
+        <v>82915</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0742035531350904</v>
+        <v>0.07420355313509039</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05845133135848443</v>
+        <v>0.05921729881212481</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0911406525471518</v>
+        <v>0.09159838893979938</v>
       </c>
     </row>
     <row r="13">
@@ -11015,19 +11015,19 @@
         <v>375598</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>354662</v>
+        <v>356004</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>393841</v>
+        <v>394251</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7784147294987789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7350250844550401</v>
+        <v>0.7378065511313961</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8162217189405501</v>
+        <v>0.8170715312827043</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>439</v>
@@ -11036,19 +11036,19 @@
         <v>313813</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>298745</v>
+        <v>298211</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>330140</v>
+        <v>328913</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.742424807129339</v>
+        <v>0.7424248071293389</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7067766245486241</v>
+        <v>0.7055118473485081</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7810507800312679</v>
+        <v>0.7781487118986665</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>814</v>
@@ -11057,19 +11057,19 @@
         <v>689412</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>666552</v>
+        <v>662221</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>715761</v>
+        <v>711230</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7616091622282638</v>
+        <v>0.7616091622282637</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7363547598986069</v>
+        <v>0.7315702531385622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7907167116368485</v>
+        <v>0.7857118821861953</v>
       </c>
     </row>
     <row r="14">
@@ -11086,19 +11086,19 @@
         <v>75933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60852</v>
+        <v>60509</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95485</v>
+        <v>94875</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1573678291831868</v>
+        <v>0.1573678291831869</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1261132739941861</v>
+        <v>0.1254018987996572</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1978896299097925</v>
+        <v>0.1966245675236122</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -11107,19 +11107,19 @@
         <v>62890</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49428</v>
+        <v>50798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75178</v>
+        <v>76776</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1487868918510749</v>
+        <v>0.148786891851075</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1169380038789519</v>
+        <v>0.120177689719723</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1778582824999864</v>
+        <v>0.181637317359083</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>157</v>
@@ -11128,19 +11128,19 @@
         <v>138823</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116991</v>
+        <v>119774</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>159583</v>
+        <v>160859</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1533609430860573</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1292425101578896</v>
+        <v>0.1323173338249478</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1762953001550627</v>
+        <v>0.1777041983890244</v>
       </c>
     </row>
     <row r="15">
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5208</v>
+        <v>5383</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002209252125727802</v>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01104237858009628</v>
+        <v>0.01141387540350762</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5244</v>
+        <v>4984</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001583319393903847</v>
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007969423905840616</v>
+        <v>0.00757322884257852</v>
       </c>
     </row>
     <row r="17">
@@ -11295,19 +11295,19 @@
         <v>3818</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>878</v>
+        <v>1425</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9225</v>
+        <v>9513</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.00809513789038147</v>
+        <v>0.008095137890381469</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001861196463700559</v>
+        <v>0.003021705908025367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01955959037850568</v>
+        <v>0.02017043299596544</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -11316,19 +11316,19 @@
         <v>1802</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4794</v>
+        <v>4997</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009664368109501094</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002299028406152825</v>
+        <v>0.002258360053878441</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02571161913516901</v>
+        <v>0.02679992986137478</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -11337,19 +11337,19 @@
         <v>5620</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2482</v>
+        <v>2216</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12021</v>
+        <v>11243</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008539737466172608</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003772473158878772</v>
+        <v>0.003368187984670124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01826794226765511</v>
+        <v>0.01708512872953156</v>
       </c>
     </row>
     <row r="18">
@@ -11366,19 +11366,19 @@
         <v>43274</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30565</v>
+        <v>31532</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56747</v>
+        <v>57322</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09175731295998467</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06481037253021424</v>
+        <v>0.06686108578843848</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.120326003947373</v>
+        <v>0.1215445194170541</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>21</v>
@@ -11387,19 +11387,19 @@
         <v>15918</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10119</v>
+        <v>9893</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27065</v>
+        <v>26213</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08537769687375023</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05427574899565252</v>
+        <v>0.05306354261271672</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1451648315246212</v>
+        <v>0.1405939573007686</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>64</v>
@@ -11408,19 +11408,19 @@
         <v>59192</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45185</v>
+        <v>45737</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>75501</v>
+        <v>76998</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.08994981870509999</v>
+        <v>0.08994981870509998</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0686640295845241</v>
+        <v>0.06950281184638001</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1147342547696855</v>
+        <v>0.1170091096261201</v>
       </c>
     </row>
     <row r="19">
@@ -11437,19 +11437,19 @@
         <v>340466</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>320719</v>
+        <v>321710</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>361297</v>
+        <v>360433</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.7219189145651203</v>
+        <v>0.7219189145651201</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6800484824842729</v>
+        <v>0.682150072329149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7660888489168238</v>
+        <v>0.7642584734247889</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -11458,19 +11458,19 @@
         <v>133066</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>122277</v>
+        <v>122376</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>143978</v>
+        <v>143246</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7137142064405559</v>
+        <v>0.7137142064405558</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6558420991934</v>
+        <v>0.65637720005744</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.772237988286845</v>
+        <v>0.7683161476173744</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>563</v>
@@ -11479,19 +11479,19 @@
         <v>473532</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>447943</v>
+        <v>451262</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>495120</v>
+        <v>494353</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7195943291045382</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6807087739662686</v>
+        <v>0.68575148262165</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7524000708416714</v>
+        <v>0.7512352091341884</v>
       </c>
     </row>
     <row r="20">
@@ -11508,19 +11508,19 @@
         <v>83013</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67045</v>
+        <v>66776</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101899</v>
+        <v>100427</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1760193824587859</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1421607478942743</v>
+        <v>0.1415906872413016</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2160655292675252</v>
+        <v>0.2129433653253282</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -11529,19 +11529,19 @@
         <v>35656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27290</v>
+        <v>27069</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44479</v>
+        <v>44483</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.191243728576193</v>
+        <v>0.1912437285761929</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1463740028328687</v>
+        <v>0.1451864636450259</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2385666185222977</v>
+        <v>0.2385904562644692</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>140</v>
@@ -11550,19 +11550,19 @@
         <v>118669</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>101099</v>
+        <v>100772</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>138632</v>
+        <v>138567</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1803327953302854</v>
+        <v>0.1803327953302855</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.153632592718647</v>
+        <v>0.1531366240193698</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2106696412566363</v>
+        <v>0.210571508754157</v>
       </c>
     </row>
     <row r="21">
@@ -11654,19 +11654,19 @@
         <v>2871</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8385</v>
+        <v>7864</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002542359161539334</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0005834372089224535</v>
+        <v>0.0005844801746703531</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007424624764734216</v>
+        <v>0.006963353202500169</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4889</v>
+        <v>4880</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001625102568342557</v>
@@ -11687,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.005680263654055763</v>
+        <v>0.005670337417965206</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -11696,19 +11696,19 @@
         <v>4270</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1390</v>
+        <v>1346</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9741</v>
+        <v>10843</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002145657627948904</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0006982443594985775</v>
+        <v>0.0006765151437073336</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004894796009394952</v>
+        <v>0.005448513910385953</v>
       </c>
     </row>
     <row r="23">
@@ -11725,19 +11725,19 @@
         <v>6982</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3147</v>
+        <v>2962</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14870</v>
+        <v>14235</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.006182475856755515</v>
+        <v>0.006182475856755516</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002786634088322605</v>
+        <v>0.002622748547873521</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01316703714453146</v>
+        <v>0.0126040491027325</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -11746,19 +11746,19 @@
         <v>9035</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4920</v>
+        <v>5326</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15485</v>
+        <v>15756</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01049802144051637</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.005716743003926883</v>
+        <v>0.006187685776744433</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01799150495998206</v>
+        <v>0.01830662778468996</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -11767,19 +11767,19 @@
         <v>16018</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10060</v>
+        <v>9466</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24947</v>
+        <v>24754</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008048893131981431</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005055038726832496</v>
+        <v>0.004756481421885524</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01253574941621226</v>
+        <v>0.01243909503307221</v>
       </c>
     </row>
     <row r="24">
@@ -11796,19 +11796,19 @@
         <v>76678</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>59406</v>
+        <v>58363</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>100058</v>
+        <v>97034</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06789486380513285</v>
+        <v>0.06789486380513286</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05260081187256154</v>
+        <v>0.05167762404501317</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08859604856314984</v>
+        <v>0.08591862024389095</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>110</v>
@@ -11817,19 +11817,19 @@
         <v>84819</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>68728</v>
+        <v>70038</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>101976</v>
+        <v>102369</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09855008421266014</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07985491451285508</v>
+        <v>0.08137676183047803</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1184858219573339</v>
+        <v>0.1189424170608948</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>182</v>
@@ -11838,19 +11838,19 @@
         <v>161497</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>137890</v>
+        <v>138423</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>187945</v>
+        <v>185574</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08115284749084929</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06929038484773067</v>
+        <v>0.0695583259111513</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09444292247257635</v>
+        <v>0.09325191211578417</v>
       </c>
     </row>
     <row r="25">
@@ -11867,19 +11867,19 @@
         <v>800375</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>763867</v>
+        <v>767146</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>834433</v>
+        <v>833126</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7086918961946376</v>
+        <v>0.7086918961946377</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6763656311587793</v>
+        <v>0.6792690546120731</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7388484118940685</v>
+        <v>0.7376913625724877</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>890</v>
@@ -11888,19 +11888,19 @@
         <v>615743</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>591582</v>
+        <v>592250</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>639111</v>
+        <v>639150</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7154283935810818</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6873556873252977</v>
+        <v>0.6881317080309871</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7425788144882965</v>
+        <v>0.7426247793193357</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1695</v>
@@ -11909,19 +11909,19 @@
         <v>1416119</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1370316</v>
+        <v>1376958</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1455789</v>
+        <v>1457796</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7116053436029758</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6885892693405921</v>
+        <v>0.6919268976479351</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.731539741057276</v>
+        <v>0.7325482853608895</v>
       </c>
     </row>
     <row r="26">
@@ -11938,19 +11938,19 @@
         <v>242463</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>210959</v>
+        <v>211381</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>274788</v>
+        <v>276707</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2146884049819348</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1867937489951978</v>
+        <v>0.1871667727439197</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2433110066205243</v>
+        <v>0.2450102749710761</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>214</v>
@@ -11959,19 +11959,19 @@
         <v>149668</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>131354</v>
+        <v>133131</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>170037</v>
+        <v>171758</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1738983981973992</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1526197954646215</v>
+        <v>0.1546845665467166</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1975643446385758</v>
+        <v>0.1995646655477689</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>442</v>
@@ -11980,19 +11980,19 @@
         <v>392131</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>355360</v>
+        <v>355411</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>429625</v>
+        <v>432789</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1970472581462445</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1785698691205314</v>
+        <v>0.1785952727756931</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2158882395096778</v>
+        <v>0.2174782781656008</v>
       </c>
     </row>
     <row r="27">
@@ -12084,19 +12084,19 @@
         <v>2369</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6167</v>
+        <v>6389</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.004183382458735218</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001069684382515615</v>
+        <v>0.001065885602808364</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01088959124618516</v>
+        <v>0.01128153577861361</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -12105,19 +12105,19 @@
         <v>4075</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1531</v>
+        <v>1842</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7997</v>
+        <v>8753</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004917415195258789</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001847141774303614</v>
+        <v>0.002223219864293278</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009650837221304272</v>
+        <v>0.01056221293659621</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -12126,19 +12126,19 @@
         <v>6444</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3362</v>
+        <v>3128</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12550</v>
+        <v>11869</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004619427209525941</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002409798005401738</v>
+        <v>0.00224201002851934</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008996515354202501</v>
+        <v>0.008508609992460867</v>
       </c>
     </row>
     <row r="29">
@@ -12155,19 +12155,19 @@
         <v>2906</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9132</v>
+        <v>10157</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005131941562178361</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001038892423952307</v>
+        <v>0.001015312626638282</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01612563983552367</v>
+        <v>0.01793609846131751</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -12176,19 +12176,19 @@
         <v>7907</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4238</v>
+        <v>4472</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14183</v>
+        <v>13622</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.009541771534374141</v>
+        <v>0.00954177153437414</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005113579343939264</v>
+        <v>0.00539661521051522</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01711567437896885</v>
+        <v>0.01643769955947196</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -12197,19 +12197,19 @@
         <v>10813</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6028</v>
+        <v>6169</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17804</v>
+        <v>17992</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007751556622349214</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004321301244489649</v>
+        <v>0.004422158238370534</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01276289589077933</v>
+        <v>0.01289728663423689</v>
       </c>
     </row>
     <row r="30">
@@ -12226,19 +12226,19 @@
         <v>52053</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>39481</v>
+        <v>39668</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67715</v>
+        <v>67342</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09191594284435148</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.069715404849129</v>
+        <v>0.07004603139366807</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1195718490735332</v>
+        <v>0.118913611317716</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>115</v>
@@ -12247,19 +12247,19 @@
         <v>77428</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>64845</v>
+        <v>64074</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>93219</v>
+        <v>92742</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09343513586807621</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07825085210653362</v>
+        <v>0.07732017108101349</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1124908620383401</v>
+        <v>0.1119159179515221</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>168</v>
@@ -12268,19 +12268,19 @@
         <v>129481</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>109207</v>
+        <v>110371</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>151710</v>
+        <v>152479</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0928184041522359</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0782850841111003</v>
+        <v>0.0791196965956867</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1087538042393543</v>
+        <v>0.1093049844386284</v>
       </c>
     </row>
     <row r="31">
@@ -12297,19 +12297,19 @@
         <v>367063</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>339883</v>
+        <v>340937</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>390668</v>
+        <v>392770</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6481663792213586</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6001710064357969</v>
+        <v>0.6020319399246442</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6898482081115417</v>
+        <v>0.6935592724662194</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>908</v>
@@ -12318,19 +12318,19 @@
         <v>584884</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>563149</v>
+        <v>563301</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>605327</v>
+        <v>605531</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7058024309666614</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.6795731946244409</v>
+        <v>0.6797573739901072</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7304712499118766</v>
+        <v>0.7307172092503996</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1270</v>
@@ -12339,19 +12339,19 @@
         <v>951947</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>915325</v>
+        <v>918579</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>984684</v>
+        <v>984244</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6824044950019545</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6561517366678818</v>
+        <v>0.6584843103742541</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7058718151298475</v>
+        <v>0.7055562575265311</v>
       </c>
     </row>
     <row r="32">
@@ -12368,19 +12368,19 @@
         <v>141919</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>120882</v>
+        <v>120275</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>168905</v>
+        <v>167570</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2506023539133764</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.213455608338002</v>
+        <v>0.2123836920218269</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2982550743276813</v>
+        <v>0.295898376634946</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>243</v>
@@ -12389,19 +12389,19 @@
         <v>154386</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>136263</v>
+        <v>137356</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>173746</v>
+        <v>175003</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1863032464356294</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1644332761825056</v>
+        <v>0.1657526189221382</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2096658704192474</v>
+        <v>0.2111833763152499</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>368</v>
@@ -12410,19 +12410,19 @@
         <v>296304</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>267442</v>
+        <v>266768</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>327369</v>
+        <v>326424</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2124061170139342</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1917158145157788</v>
+        <v>0.1912326637659097</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2346750163385513</v>
+        <v>0.2339975475341364</v>
       </c>
     </row>
     <row r="33">
@@ -12530,7 +12530,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3556</v>
+        <v>3299</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001191313966330408</v>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.004220837119637002</v>
+        <v>0.003915781220719427</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -12551,16 +12551,16 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3400</v>
+        <v>3617</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.0009295755699801384</v>
+        <v>0.0009295755699801382</v>
       </c>
       <c r="V34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.003149052849914161</v>
+        <v>0.003349753052260491</v>
       </c>
     </row>
     <row r="35">
@@ -12593,16 +12593,16 @@
         <v>1688</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7942</v>
+        <v>8098</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.004972314202260584</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002003920532167681</v>
+        <v>0.002003406906427511</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.009426705910510516</v>
+        <v>0.009611425087457296</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -12611,19 +12611,19 @@
         <v>4189</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1849</v>
+        <v>1689</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8211</v>
+        <v>8032</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.003879868732609804</v>
+        <v>0.003879868732609803</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001712193859748033</v>
+        <v>0.001564004255363681</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.007604504843155644</v>
+        <v>0.007438855027501954</v>
       </c>
     </row>
     <row r="36">
@@ -12640,19 +12640,19 @@
         <v>17496</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8110</v>
+        <v>7907</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>34316</v>
+        <v>32922</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.07375121827549221</v>
+        <v>0.07375121827549219</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03418754431845316</v>
+        <v>0.03333162412618022</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1446546008953715</v>
+        <v>0.138776115968073</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>75</v>
@@ -12661,19 +12661,19 @@
         <v>59902</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>46417</v>
+        <v>46556</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>78001</v>
+        <v>76921</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.07109862286415754</v>
+        <v>0.07109862286415757</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05509254567061047</v>
+        <v>0.05525721183203652</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09258023084905215</v>
+        <v>0.09129773622015866</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>84</v>
@@ -12682,19 +12682,19 @@
         <v>77398</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>60133</v>
+        <v>59841</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>97942</v>
+        <v>97368</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.07168141303429837</v>
+        <v>0.07168141303429836</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05569159000490171</v>
+        <v>0.05542070372615317</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0907078215355257</v>
+        <v>0.0901762382502285</v>
       </c>
     </row>
     <row r="37">
@@ -12711,19 +12711,19 @@
         <v>150065</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>123739</v>
+        <v>126165</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>171440</v>
+        <v>172460</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6325755278559376</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5216048689960594</v>
+        <v>0.5318289086282401</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7226811647761635</v>
+        <v>0.7269815189609309</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>811</v>
@@ -12732,19 +12732,19 @@
         <v>595461</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>568269</v>
+        <v>565604</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>622081</v>
+        <v>620602</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.7067572439257224</v>
+        <v>0.7067572439257225</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6744828881021472</v>
+        <v>0.671320223668043</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7383532067289742</v>
+        <v>0.7365974233983111</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>887</v>
@@ -12753,19 +12753,19 @@
         <v>745525</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>712127</v>
+        <v>709373</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>781081</v>
+        <v>781006</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.690459102586522</v>
+        <v>0.6904591025865219</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6595283562474743</v>
+        <v>0.6569779731585483</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7233889689361667</v>
+        <v>0.7233201999639444</v>
       </c>
     </row>
     <row r="38">
@@ -12782,19 +12782,19 @@
         <v>69668</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>47845</v>
+        <v>48870</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>95096</v>
+        <v>95975</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2936732538685702</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2016854250781401</v>
+        <v>0.2060032677088975</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4008638294110339</v>
+        <v>0.4045677722068855</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>261</v>
@@ -12803,19 +12803,19 @@
         <v>181969</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>158508</v>
+        <v>160879</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>209035</v>
+        <v>210649</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.2159805050415289</v>
+        <v>0.215980505041529</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.188134014912256</v>
+        <v>0.1909486865002866</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2481059838892663</v>
+        <v>0.2500207747062739</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>288</v>
@@ -12824,19 +12824,19 @@
         <v>251636</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>222033</v>
+        <v>218811</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>286995</v>
+        <v>286161</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2330500400765897</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2056334760764056</v>
+        <v>0.2026497418273953</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.265796717252988</v>
+        <v>0.2650246032898487</v>
       </c>
     </row>
     <row r="39">
@@ -12928,19 +12928,19 @@
         <v>7655</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3240</v>
+        <v>3396</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>14828</v>
+        <v>14447</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002227644966594634</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.000942804259313622</v>
+        <v>0.0009883965557757051</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.004315166268081374</v>
+        <v>0.004204461944505092</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>14</v>
@@ -12949,19 +12949,19 @@
         <v>8134</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4654</v>
+        <v>4342</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>13400</v>
+        <v>13470</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002243214466725296</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001283519495295864</v>
+        <v>0.001197389763560445</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.00369544716866815</v>
+        <v>0.003714697635913975</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>22</v>
@@ -12970,19 +12970,19 @@
         <v>15789</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>10346</v>
+        <v>10016</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>25073</v>
+        <v>24650</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002235639069163039</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001464882073778683</v>
+        <v>0.001418269391278506</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.003550239720890781</v>
+        <v>0.00349029044890233</v>
       </c>
     </row>
     <row r="41">
@@ -12999,19 +12999,19 @@
         <v>26034</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>17191</v>
+        <v>17469</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>39494</v>
+        <v>39425</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.007576427601170346</v>
+        <v>0.007576427601170347</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.005002922348904789</v>
+        <v>0.005083684539670383</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0114935344516998</v>
+        <v>0.01147343876395197</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>51</v>
@@ -13020,19 +13020,19 @@
         <v>36021</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>27015</v>
+        <v>26840</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>47471</v>
+        <v>47978</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.009933804152749479</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0074501217587536</v>
+        <v>0.007401738475982666</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01309137475216418</v>
+        <v>0.01323110881652575</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>78</v>
@@ -13041,19 +13041,19 @@
         <v>62056</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>48857</v>
+        <v>47108</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>78521</v>
+        <v>77818</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.008786813919775663</v>
+        <v>0.008786813919775665</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.006917868849636065</v>
+        <v>0.006670291602526584</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01111822289952528</v>
+        <v>0.01101863447675869</v>
       </c>
     </row>
     <row r="42">
@@ -13070,19 +13070,19 @@
         <v>263263</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>232120</v>
+        <v>233939</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>301360</v>
+        <v>303867</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.07661405829042867</v>
+        <v>0.07661405829042865</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06755086140008162</v>
+        <v>0.06808035308966209</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08770114600712418</v>
+        <v>0.08843055962211797</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>435</v>
@@ -13091,19 +13091,19 @@
         <v>313661</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>281129</v>
+        <v>286376</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>345498</v>
+        <v>345985</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08649973263628508</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07752822895254181</v>
+        <v>0.07897545051504733</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09527980607102805</v>
+        <v>0.09541394053764155</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>683</v>
@@ -13112,19 +13112,19 @@
         <v>576923</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>533207</v>
+        <v>526627</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>627660</v>
+        <v>621451</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.08168982141804476</v>
+        <v>0.08168982141804478</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07549974363602517</v>
+        <v>0.07456813547179582</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08887398377156505</v>
+        <v>0.08799471524267177</v>
       </c>
     </row>
     <row r="43">
@@ -13141,19 +13141,19 @@
         <v>2423542</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>2362357</v>
+        <v>2368586</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>2490926</v>
+        <v>2484968</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.7052932428681917</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6874874196739664</v>
+        <v>0.6893000534320294</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.7249030825855568</v>
+        <v>0.723169351248919</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3739</v>
@@ -13162,19 +13162,19 @@
         <v>2590949</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2540095</v>
+        <v>2543109</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>2641812</v>
+        <v>2640966</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.7145188840198984</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.7004946414664158</v>
+        <v>0.7013258385867897</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.7285455620626745</v>
+        <v>0.7283122225952948</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>6117</v>
@@ -13183,19 +13183,19 @@
         <v>5014491</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4942689</v>
+        <v>4944660</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>5088775</v>
+        <v>5097005</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.7100301143802578</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.6998632504290406</v>
+        <v>0.7001423599642672</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.7205483871515483</v>
+        <v>0.7217137718957386</v>
       </c>
     </row>
     <row r="44">
@@ -13212,19 +13212,19 @@
         <v>715725</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>659795</v>
+        <v>658448</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>768136</v>
+        <v>770868</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2082886262736147</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1920118904134994</v>
+        <v>0.1916198778167592</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2235409817319616</v>
+        <v>0.2243361152965785</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>989</v>
@@ -13233,19 +13233,19 @@
         <v>677380</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>634668</v>
+        <v>633640</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>720757</v>
+        <v>718121</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1868043647243418</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1750254577171695</v>
+        <v>0.174741916624039</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1987668443887595</v>
+        <v>0.198039723758775</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1623</v>
@@ -13254,19 +13254,19 @@
         <v>1393105</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1326438</v>
+        <v>1319707</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1464087</v>
+        <v>1463623</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1972576112127587</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1878178361532271</v>
+        <v>0.1868647712950929</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2073083477506886</v>
+        <v>0.2072426730140006</v>
       </c>
     </row>
     <row r="45">
